--- a/Översikt STORFORS.xlsx
+++ b/Översikt STORFORS.xlsx
@@ -572,7 +572,7 @@
         <v>45061</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44029</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44029</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>44243</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>44319</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>44517</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1098,7 +1098,7 @@
         <v>44858</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         <v>43364</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1245,7 +1245,7 @@
         <v>43420</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1302,7 +1302,7 @@
         <v>43434</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>43437</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         <v>43444</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         <v>43447</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         <v>43476</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1602,7 +1602,7 @@
         <v>43476</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1664,7 +1664,7 @@
         <v>43479</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         <v>43482</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1783,7 +1783,7 @@
         <v>43494</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         <v>43503</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         <v>43503</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>43560</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         <v>43565</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         <v>43588</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2145,7 +2145,7 @@
         <v>43619</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2207,7 +2207,7 @@
         <v>43626</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2269,7 +2269,7 @@
         <v>43627</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
         <v>43627</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2393,7 +2393,7 @@
         <v>43642</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         <v>43650</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2517,7 +2517,7 @@
         <v>43685</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2579,7 +2579,7 @@
         <v>43735</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
         <v>43787</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2698,7 +2698,7 @@
         <v>43788</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         <v>43790</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2812,7 +2812,7 @@
         <v>43798</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2874,7 +2874,7 @@
         <v>43808</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2931,7 +2931,7 @@
         <v>43818</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         <v>43844</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         <v>43845</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         <v>43850</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>43850</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>43850</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3278,7 +3278,7 @@
         <v>43878</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3335,7 +3335,7 @@
         <v>43886</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3392,7 +3392,7 @@
         <v>43894</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3449,7 +3449,7 @@
         <v>43899</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         <v>43913</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3563,7 +3563,7 @@
         <v>43921</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3620,7 +3620,7 @@
         <v>43921</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3677,7 +3677,7 @@
         <v>43948</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3734,7 +3734,7 @@
         <v>43948</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3791,7 +3791,7 @@
         <v>43956</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         <v>43963</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3915,7 +3915,7 @@
         <v>43976</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3977,7 +3977,7 @@
         <v>43990</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4039,7 +4039,7 @@
         <v>43990</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4101,7 +4101,7 @@
         <v>44003</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4163,7 +4163,7 @@
         <v>44006</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4225,7 +4225,7 @@
         <v>44029</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4282,7 +4282,7 @@
         <v>44029</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         <v>44043</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>44043</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4463,7 +4463,7 @@
         <v>44049</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>44109</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         <v>44109</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
         <v>44109</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4691,7 +4691,7 @@
         <v>44110</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>44123</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4805,7 +4805,7 @@
         <v>44123</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4867,7 +4867,7 @@
         <v>44130</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         <v>44145</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4986,7 +4986,7 @@
         <v>44200</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5048,7 +5048,7 @@
         <v>44200</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5110,7 +5110,7 @@
         <v>44266</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5167,7 +5167,7 @@
         <v>44299</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5224,7 +5224,7 @@
         <v>44311</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5281,7 +5281,7 @@
         <v>44322</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5338,7 +5338,7 @@
         <v>44323</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5395,7 +5395,7 @@
         <v>44333</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>44335</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5514,7 +5514,7 @@
         <v>44377</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5576,7 +5576,7 @@
         <v>44382</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5638,7 +5638,7 @@
         <v>44382</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5700,7 +5700,7 @@
         <v>44383</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5762,7 +5762,7 @@
         <v>44405</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>44425</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         <v>44450</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5943,7 +5943,7 @@
         <v>44453</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6005,7 +6005,7 @@
         <v>44468</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         <v>44505</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6124,7 +6124,7 @@
         <v>44512</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6181,7 +6181,7 @@
         <v>44512</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6238,7 +6238,7 @@
         <v>44536</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6295,7 +6295,7 @@
         <v>44616</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6357,7 +6357,7 @@
         <v>44728</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6414,7 +6414,7 @@
         <v>44733</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6476,7 +6476,7 @@
         <v>44788</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6533,7 +6533,7 @@
         <v>44797</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6590,7 +6590,7 @@
         <v>44797</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6647,7 +6647,7 @@
         <v>44834</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6709,7 +6709,7 @@
         <v>44834</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>44840</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6828,7 +6828,7 @@
         <v>44841</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
         <v>44851</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>44868</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
         <v>44896</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         <v>44936</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7123,7 +7123,7 @@
         <v>44938</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7180,7 +7180,7 @@
         <v>44938</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7237,7 +7237,7 @@
         <v>44938</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>44938</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>44943</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7413,7 +7413,7 @@
         <v>44977</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7470,7 +7470,7 @@
         <v>44995</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>45003</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7584,7 +7584,7 @@
         <v>45007</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7646,7 +7646,7 @@
         <v>45021</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7703,7 +7703,7 @@
         <v>45068</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7760,7 +7760,7 @@
         <v>45068</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7817,7 +7817,7 @@
         <v>45075</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7874,7 +7874,7 @@
         <v>45077</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>45090</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>45104</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>45125</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>45125</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>45146</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
         <v>45163</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>45168</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>

--- a/Översikt STORFORS.xlsx
+++ b/Översikt STORFORS.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y129"/>
+  <dimension ref="A1:Y131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>45061</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44029</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44029</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>44243</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>44319</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>44517</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1098,7 +1098,7 @@
         <v>44858</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         <v>43364</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1245,7 +1245,7 @@
         <v>43420</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1302,7 +1302,7 @@
         <v>43434</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>43437</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         <v>43444</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         <v>43447</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         <v>43476</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1602,7 +1602,7 @@
         <v>43476</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1664,7 +1664,7 @@
         <v>43479</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         <v>43482</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1783,7 +1783,7 @@
         <v>43494</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         <v>43503</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         <v>43503</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>43560</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         <v>43565</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         <v>43588</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2145,7 +2145,7 @@
         <v>43619</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2207,7 +2207,7 @@
         <v>43626</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2269,7 +2269,7 @@
         <v>43627</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
         <v>43627</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2393,7 +2393,7 @@
         <v>43642</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         <v>43650</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2517,7 +2517,7 @@
         <v>43685</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2579,7 +2579,7 @@
         <v>43735</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
         <v>43787</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2698,7 +2698,7 @@
         <v>43788</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         <v>43790</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2812,7 +2812,7 @@
         <v>43798</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2874,7 +2874,7 @@
         <v>43808</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2931,7 +2931,7 @@
         <v>43818</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         <v>43844</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         <v>43845</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         <v>43850</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>43850</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>43850</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3278,7 +3278,7 @@
         <v>43878</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3335,7 +3335,7 @@
         <v>43886</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3392,7 +3392,7 @@
         <v>43894</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3449,7 +3449,7 @@
         <v>43899</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         <v>43913</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3563,7 +3563,7 @@
         <v>43921</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3620,7 +3620,7 @@
         <v>43921</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3677,7 +3677,7 @@
         <v>43948</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3734,7 +3734,7 @@
         <v>43948</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3791,7 +3791,7 @@
         <v>43956</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         <v>43963</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3915,7 +3915,7 @@
         <v>43976</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3977,7 +3977,7 @@
         <v>43990</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4039,7 +4039,7 @@
         <v>43990</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4101,7 +4101,7 @@
         <v>44003</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4163,7 +4163,7 @@
         <v>44006</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4225,7 +4225,7 @@
         <v>44029</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4282,7 +4282,7 @@
         <v>44029</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         <v>44043</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>44043</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4463,7 +4463,7 @@
         <v>44049</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>44109</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         <v>44109</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
         <v>44109</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4691,7 +4691,7 @@
         <v>44110</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>44123</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4805,7 +4805,7 @@
         <v>44123</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4867,7 +4867,7 @@
         <v>44130</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         <v>44145</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4986,7 +4986,7 @@
         <v>44200</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5048,7 +5048,7 @@
         <v>44200</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5110,7 +5110,7 @@
         <v>44266</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5167,7 +5167,7 @@
         <v>44299</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5224,7 +5224,7 @@
         <v>44311</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5281,7 +5281,7 @@
         <v>44322</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5338,7 +5338,7 @@
         <v>44323</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5395,7 +5395,7 @@
         <v>44333</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>44335</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5514,7 +5514,7 @@
         <v>44377</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5576,7 +5576,7 @@
         <v>44382</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5638,7 +5638,7 @@
         <v>44382</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5700,7 +5700,7 @@
         <v>44383</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5762,7 +5762,7 @@
         <v>44405</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>44425</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         <v>44450</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5943,7 +5943,7 @@
         <v>44453</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6005,7 +6005,7 @@
         <v>44468</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         <v>44505</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6124,7 +6124,7 @@
         <v>44512</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6181,7 +6181,7 @@
         <v>44512</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6238,7 +6238,7 @@
         <v>44536</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6295,7 +6295,7 @@
         <v>44616</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6357,7 +6357,7 @@
         <v>44728</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6414,7 +6414,7 @@
         <v>44733</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6476,7 +6476,7 @@
         <v>44788</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6533,7 +6533,7 @@
         <v>44797</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6590,7 +6590,7 @@
         <v>44797</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6647,7 +6647,7 @@
         <v>44834</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6709,7 +6709,7 @@
         <v>44834</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>44840</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6828,7 +6828,7 @@
         <v>44841</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
         <v>44851</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>44868</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
         <v>44896</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         <v>44936</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7123,7 +7123,7 @@
         <v>44938</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7180,7 +7180,7 @@
         <v>44938</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7237,7 +7237,7 @@
         <v>44938</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>44938</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>44943</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7413,7 +7413,7 @@
         <v>44977</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7470,7 +7470,7 @@
         <v>44995</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>45003</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7584,7 +7584,7 @@
         <v>45007</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7646,7 +7646,7 @@
         <v>45021</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7703,7 +7703,7 @@
         <v>45068</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7760,7 +7760,7 @@
         <v>45068</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7817,7 +7817,7 @@
         <v>45075</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7874,7 +7874,7 @@
         <v>45077</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>45090</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>45104</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>45125</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>45125</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>45146</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
         <v>45163</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
       </c>
       <c r="R128" s="2" t="inlineStr"/>
     </row>
-    <row r="129">
+    <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
           <t>A 39998-2023</t>
@@ -8283,7 +8283,7 @@
         <v>45168</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8329,6 +8329,130 @@
         <v>0</v>
       </c>
       <c r="R129" s="2" t="inlineStr"/>
+    </row>
+    <row r="130" ht="15" customHeight="1">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>A 41214-2023</t>
+        </is>
+      </c>
+      <c r="B130" s="1" t="n">
+        <v>45174</v>
+      </c>
+      <c r="C130" s="1" t="n">
+        <v>45175</v>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>STORFORS</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G130" t="n">
+        <v>51.6</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="n">
+        <v>0</v>
+      </c>
+      <c r="L130" t="n">
+        <v>0</v>
+      </c>
+      <c r="M130" t="n">
+        <v>0</v>
+      </c>
+      <c r="N130" t="n">
+        <v>0</v>
+      </c>
+      <c r="O130" t="n">
+        <v>0</v>
+      </c>
+      <c r="P130" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q130" t="n">
+        <v>0</v>
+      </c>
+      <c r="R130" s="2" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>A 41265-2023</t>
+        </is>
+      </c>
+      <c r="B131" s="1" t="n">
+        <v>45174</v>
+      </c>
+      <c r="C131" s="1" t="n">
+        <v>45175</v>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>STORFORS</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G131" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="n">
+        <v>0</v>
+      </c>
+      <c r="L131" t="n">
+        <v>0</v>
+      </c>
+      <c r="M131" t="n">
+        <v>0</v>
+      </c>
+      <c r="N131" t="n">
+        <v>0</v>
+      </c>
+      <c r="O131" t="n">
+        <v>0</v>
+      </c>
+      <c r="P131" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q131" t="n">
+        <v>0</v>
+      </c>
+      <c r="R131" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt STORFORS.xlsx
+++ b/Översikt STORFORS.xlsx
@@ -572,7 +572,7 @@
         <v>45061</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44029</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44029</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>44243</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>44319</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>44517</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1098,7 +1098,7 @@
         <v>44858</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         <v>43364</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1245,7 +1245,7 @@
         <v>43420</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1302,7 +1302,7 @@
         <v>43434</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>43437</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         <v>43444</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         <v>43447</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         <v>43476</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1602,7 +1602,7 @@
         <v>43476</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1664,7 +1664,7 @@
         <v>43479</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         <v>43482</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1783,7 +1783,7 @@
         <v>43494</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         <v>43503</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         <v>43503</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>43560</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         <v>43565</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         <v>43588</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2145,7 +2145,7 @@
         <v>43619</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2207,7 +2207,7 @@
         <v>43626</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2269,7 +2269,7 @@
         <v>43627</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
         <v>43627</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2393,7 +2393,7 @@
         <v>43642</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         <v>43650</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2517,7 +2517,7 @@
         <v>43685</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2579,7 +2579,7 @@
         <v>43735</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
         <v>43787</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2698,7 +2698,7 @@
         <v>43788</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         <v>43790</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2812,7 +2812,7 @@
         <v>43798</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2874,7 +2874,7 @@
         <v>43808</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2931,7 +2931,7 @@
         <v>43818</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         <v>43844</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         <v>43845</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         <v>43850</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>43850</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>43850</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3278,7 +3278,7 @@
         <v>43878</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3335,7 +3335,7 @@
         <v>43886</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3392,7 +3392,7 @@
         <v>43894</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3449,7 +3449,7 @@
         <v>43899</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         <v>43913</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3563,7 +3563,7 @@
         <v>43921</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3620,7 +3620,7 @@
         <v>43921</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3677,7 +3677,7 @@
         <v>43948</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3734,7 +3734,7 @@
         <v>43948</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3791,7 +3791,7 @@
         <v>43956</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         <v>43963</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3915,7 +3915,7 @@
         <v>43976</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3977,7 +3977,7 @@
         <v>43990</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4039,7 +4039,7 @@
         <v>43990</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4101,7 +4101,7 @@
         <v>44003</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4163,7 +4163,7 @@
         <v>44006</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4225,7 +4225,7 @@
         <v>44029</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4282,7 +4282,7 @@
         <v>44029</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         <v>44043</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>44043</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4463,7 +4463,7 @@
         <v>44049</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>44109</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         <v>44109</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
         <v>44109</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4691,7 +4691,7 @@
         <v>44110</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>44123</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4805,7 +4805,7 @@
         <v>44123</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4867,7 +4867,7 @@
         <v>44130</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         <v>44145</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4986,7 +4986,7 @@
         <v>44200</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5048,7 +5048,7 @@
         <v>44200</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5110,7 +5110,7 @@
         <v>44266</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5167,7 +5167,7 @@
         <v>44299</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5224,7 +5224,7 @@
         <v>44311</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5281,7 +5281,7 @@
         <v>44322</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5338,7 +5338,7 @@
         <v>44323</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5395,7 +5395,7 @@
         <v>44333</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>44335</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5514,7 +5514,7 @@
         <v>44377</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5576,7 +5576,7 @@
         <v>44382</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5638,7 +5638,7 @@
         <v>44382</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5700,7 +5700,7 @@
         <v>44383</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5762,7 +5762,7 @@
         <v>44405</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>44425</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         <v>44450</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5943,7 +5943,7 @@
         <v>44453</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6005,7 +6005,7 @@
         <v>44468</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         <v>44505</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6124,7 +6124,7 @@
         <v>44512</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6181,7 +6181,7 @@
         <v>44512</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6238,7 +6238,7 @@
         <v>44536</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6295,7 +6295,7 @@
         <v>44616</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6357,7 +6357,7 @@
         <v>44728</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6414,7 +6414,7 @@
         <v>44733</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6476,7 +6476,7 @@
         <v>44788</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6533,7 +6533,7 @@
         <v>44797</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6590,7 +6590,7 @@
         <v>44797</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6647,7 +6647,7 @@
         <v>44834</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6709,7 +6709,7 @@
         <v>44834</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>44840</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6828,7 +6828,7 @@
         <v>44841</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
         <v>44851</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>44868</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
         <v>44896</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         <v>44936</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7123,7 +7123,7 @@
         <v>44938</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7180,7 +7180,7 @@
         <v>44938</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7237,7 +7237,7 @@
         <v>44938</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>44938</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>44943</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7413,7 +7413,7 @@
         <v>44977</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7470,7 +7470,7 @@
         <v>44995</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>45003</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7584,7 +7584,7 @@
         <v>45007</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7646,7 +7646,7 @@
         <v>45021</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7703,7 +7703,7 @@
         <v>45068</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7760,7 +7760,7 @@
         <v>45068</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7817,7 +7817,7 @@
         <v>45075</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7874,7 +7874,7 @@
         <v>45077</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>45090</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>45104</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>45125</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>45125</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>45146</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
         <v>45163</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>45168</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>45174</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8402,7 +8402,7 @@
         <v>45174</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>

--- a/Översikt STORFORS.xlsx
+++ b/Översikt STORFORS.xlsx
@@ -572,7 +572,7 @@
         <v>45061</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44029</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44029</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>44243</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>44319</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>44517</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1098,7 +1098,7 @@
         <v>44858</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         <v>43364</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1245,7 +1245,7 @@
         <v>43420</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1302,7 +1302,7 @@
         <v>43434</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>43437</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         <v>43444</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         <v>43447</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         <v>43476</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1602,7 +1602,7 @@
         <v>43476</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1664,7 +1664,7 @@
         <v>43479</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         <v>43482</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1783,7 +1783,7 @@
         <v>43494</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         <v>43503</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         <v>43503</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>43560</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         <v>43565</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         <v>43588</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2145,7 +2145,7 @@
         <v>43619</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2207,7 +2207,7 @@
         <v>43626</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2269,7 +2269,7 @@
         <v>43627</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
         <v>43627</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2393,7 +2393,7 @@
         <v>43642</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         <v>43650</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2517,7 +2517,7 @@
         <v>43685</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2579,7 +2579,7 @@
         <v>43735</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
         <v>43787</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2698,7 +2698,7 @@
         <v>43788</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         <v>43790</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2812,7 +2812,7 @@
         <v>43798</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2874,7 +2874,7 @@
         <v>43808</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2931,7 +2931,7 @@
         <v>43818</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         <v>43844</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         <v>43845</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         <v>43850</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>43850</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>43850</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3278,7 +3278,7 @@
         <v>43878</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3335,7 +3335,7 @@
         <v>43886</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3392,7 +3392,7 @@
         <v>43894</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3449,7 +3449,7 @@
         <v>43899</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         <v>43913</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3563,7 +3563,7 @@
         <v>43921</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3620,7 +3620,7 @@
         <v>43921</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3677,7 +3677,7 @@
         <v>43948</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3734,7 +3734,7 @@
         <v>43948</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3791,7 +3791,7 @@
         <v>43956</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         <v>43963</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3915,7 +3915,7 @@
         <v>43976</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3977,7 +3977,7 @@
         <v>43990</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4039,7 +4039,7 @@
         <v>43990</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4101,7 +4101,7 @@
         <v>44003</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4163,7 +4163,7 @@
         <v>44006</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4225,7 +4225,7 @@
         <v>44029</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4282,7 +4282,7 @@
         <v>44029</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         <v>44043</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>44043</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4463,7 +4463,7 @@
         <v>44049</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>44109</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         <v>44109</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
         <v>44109</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4691,7 +4691,7 @@
         <v>44110</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>44123</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4805,7 +4805,7 @@
         <v>44123</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4867,7 +4867,7 @@
         <v>44130</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         <v>44145</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4986,7 +4986,7 @@
         <v>44200</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5048,7 +5048,7 @@
         <v>44200</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5110,7 +5110,7 @@
         <v>44266</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5167,7 +5167,7 @@
         <v>44299</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5224,7 +5224,7 @@
         <v>44311</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5281,7 +5281,7 @@
         <v>44322</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5338,7 +5338,7 @@
         <v>44323</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5395,7 +5395,7 @@
         <v>44333</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>44335</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5514,7 +5514,7 @@
         <v>44377</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5576,7 +5576,7 @@
         <v>44382</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5638,7 +5638,7 @@
         <v>44382</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5700,7 +5700,7 @@
         <v>44383</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5762,7 +5762,7 @@
         <v>44405</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>44425</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         <v>44450</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5943,7 +5943,7 @@
         <v>44453</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6005,7 +6005,7 @@
         <v>44468</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         <v>44505</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6124,7 +6124,7 @@
         <v>44512</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6181,7 +6181,7 @@
         <v>44512</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6238,7 +6238,7 @@
         <v>44536</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6295,7 +6295,7 @@
         <v>44616</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6357,7 +6357,7 @@
         <v>44728</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6414,7 +6414,7 @@
         <v>44733</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6476,7 +6476,7 @@
         <v>44788</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6533,7 +6533,7 @@
         <v>44797</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6590,7 +6590,7 @@
         <v>44797</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6647,7 +6647,7 @@
         <v>44834</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6709,7 +6709,7 @@
         <v>44834</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>44840</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6828,7 +6828,7 @@
         <v>44841</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
         <v>44851</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>44868</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
         <v>44896</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         <v>44936</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7123,7 +7123,7 @@
         <v>44938</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7180,7 +7180,7 @@
         <v>44938</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7237,7 +7237,7 @@
         <v>44938</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>44938</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>44943</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7413,7 +7413,7 @@
         <v>44977</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7470,7 +7470,7 @@
         <v>44995</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>45003</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7584,7 +7584,7 @@
         <v>45007</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7646,7 +7646,7 @@
         <v>45021</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7703,7 +7703,7 @@
         <v>45068</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7760,7 +7760,7 @@
         <v>45068</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7817,7 +7817,7 @@
         <v>45075</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7874,7 +7874,7 @@
         <v>45077</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>45090</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>45104</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>45125</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>45125</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>45146</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
         <v>45163</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>45168</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>45174</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8402,7 +8402,7 @@
         <v>45174</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>

--- a/Översikt STORFORS.xlsx
+++ b/Översikt STORFORS.xlsx
@@ -572,7 +572,7 @@
         <v>45061</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44029</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44029</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>44243</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>44319</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>44517</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1098,7 +1098,7 @@
         <v>44858</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         <v>43364</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1245,7 +1245,7 @@
         <v>43420</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1302,7 +1302,7 @@
         <v>43434</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>43437</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         <v>43444</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         <v>43447</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         <v>43476</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1602,7 +1602,7 @@
         <v>43476</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1664,7 +1664,7 @@
         <v>43479</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         <v>43482</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1783,7 +1783,7 @@
         <v>43494</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         <v>43503</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         <v>43503</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>43560</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         <v>43565</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         <v>43588</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2145,7 +2145,7 @@
         <v>43619</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2207,7 +2207,7 @@
         <v>43626</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2269,7 +2269,7 @@
         <v>43627</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
         <v>43627</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2393,7 +2393,7 @@
         <v>43642</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         <v>43650</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2517,7 +2517,7 @@
         <v>43685</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2579,7 +2579,7 @@
         <v>43735</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
         <v>43787</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2698,7 +2698,7 @@
         <v>43788</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         <v>43790</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2812,7 +2812,7 @@
         <v>43798</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2874,7 +2874,7 @@
         <v>43808</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2931,7 +2931,7 @@
         <v>43818</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         <v>43844</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         <v>43845</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         <v>43850</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>43850</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>43850</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3278,7 +3278,7 @@
         <v>43878</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3335,7 +3335,7 @@
         <v>43886</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3392,7 +3392,7 @@
         <v>43894</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3449,7 +3449,7 @@
         <v>43899</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         <v>43913</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3563,7 +3563,7 @@
         <v>43921</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3620,7 +3620,7 @@
         <v>43921</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3677,7 +3677,7 @@
         <v>43948</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3734,7 +3734,7 @@
         <v>43948</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3791,7 +3791,7 @@
         <v>43956</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         <v>43963</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3915,7 +3915,7 @@
         <v>43976</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3977,7 +3977,7 @@
         <v>43990</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4039,7 +4039,7 @@
         <v>43990</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4101,7 +4101,7 @@
         <v>44003</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4163,7 +4163,7 @@
         <v>44006</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4225,7 +4225,7 @@
         <v>44029</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4282,7 +4282,7 @@
         <v>44029</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         <v>44043</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>44043</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4463,7 +4463,7 @@
         <v>44049</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>44109</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         <v>44109</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
         <v>44109</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4691,7 +4691,7 @@
         <v>44110</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>44123</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4805,7 +4805,7 @@
         <v>44123</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4867,7 +4867,7 @@
         <v>44130</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         <v>44145</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4986,7 +4986,7 @@
         <v>44200</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5048,7 +5048,7 @@
         <v>44200</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5110,7 +5110,7 @@
         <v>44266</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5167,7 +5167,7 @@
         <v>44299</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5224,7 +5224,7 @@
         <v>44311</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5281,7 +5281,7 @@
         <v>44322</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5338,7 +5338,7 @@
         <v>44323</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5395,7 +5395,7 @@
         <v>44333</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>44335</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5514,7 +5514,7 @@
         <v>44377</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5576,7 +5576,7 @@
         <v>44382</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5638,7 +5638,7 @@
         <v>44382</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5700,7 +5700,7 @@
         <v>44383</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5762,7 +5762,7 @@
         <v>44405</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>44425</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         <v>44450</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5943,7 +5943,7 @@
         <v>44453</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6005,7 +6005,7 @@
         <v>44468</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         <v>44505</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6124,7 +6124,7 @@
         <v>44512</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6181,7 +6181,7 @@
         <v>44512</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6238,7 +6238,7 @@
         <v>44536</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6295,7 +6295,7 @@
         <v>44616</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6357,7 +6357,7 @@
         <v>44728</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6414,7 +6414,7 @@
         <v>44733</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6476,7 +6476,7 @@
         <v>44788</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6533,7 +6533,7 @@
         <v>44797</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6590,7 +6590,7 @@
         <v>44797</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6647,7 +6647,7 @@
         <v>44834</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6709,7 +6709,7 @@
         <v>44834</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>44840</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6828,7 +6828,7 @@
         <v>44841</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
         <v>44851</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>44868</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
         <v>44896</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         <v>44936</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7123,7 +7123,7 @@
         <v>44938</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7180,7 +7180,7 @@
         <v>44938</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7237,7 +7237,7 @@
         <v>44938</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>44938</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>44943</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7413,7 +7413,7 @@
         <v>44977</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7470,7 +7470,7 @@
         <v>44995</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>45003</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7584,7 +7584,7 @@
         <v>45007</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7646,7 +7646,7 @@
         <v>45021</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7703,7 +7703,7 @@
         <v>45068</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7760,7 +7760,7 @@
         <v>45068</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7817,7 +7817,7 @@
         <v>45075</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7874,7 +7874,7 @@
         <v>45077</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>45090</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>45104</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>45125</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>45125</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>45146</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
         <v>45163</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>45168</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>45174</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8402,7 +8402,7 @@
         <v>45174</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>

--- a/Översikt STORFORS.xlsx
+++ b/Översikt STORFORS.xlsx
@@ -572,7 +572,7 @@
         <v>45061</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44029</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44029</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>44243</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>44319</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>44517</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1098,7 +1098,7 @@
         <v>44858</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         <v>43364</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1245,7 +1245,7 @@
         <v>43420</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1302,7 +1302,7 @@
         <v>43434</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>43437</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         <v>43444</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         <v>43447</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         <v>43476</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1602,7 +1602,7 @@
         <v>43476</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1664,7 +1664,7 @@
         <v>43479</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         <v>43482</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1783,7 +1783,7 @@
         <v>43494</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         <v>43503</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         <v>43503</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>43560</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         <v>43565</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         <v>43588</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2145,7 +2145,7 @@
         <v>43619</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2207,7 +2207,7 @@
         <v>43626</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2269,7 +2269,7 @@
         <v>43627</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
         <v>43627</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2393,7 +2393,7 @@
         <v>43642</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         <v>43650</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2517,7 +2517,7 @@
         <v>43685</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2579,7 +2579,7 @@
         <v>43735</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
         <v>43787</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2698,7 +2698,7 @@
         <v>43788</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         <v>43790</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2812,7 +2812,7 @@
         <v>43798</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2874,7 +2874,7 @@
         <v>43808</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2931,7 +2931,7 @@
         <v>43818</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         <v>43844</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         <v>43845</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         <v>43850</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>43850</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>43850</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3278,7 +3278,7 @@
         <v>43878</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3335,7 +3335,7 @@
         <v>43886</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3392,7 +3392,7 @@
         <v>43894</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3449,7 +3449,7 @@
         <v>43899</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         <v>43913</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3563,7 +3563,7 @@
         <v>43921</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3620,7 +3620,7 @@
         <v>43921</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3677,7 +3677,7 @@
         <v>43948</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3734,7 +3734,7 @@
         <v>43948</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3791,7 +3791,7 @@
         <v>43956</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         <v>43963</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3915,7 +3915,7 @@
         <v>43976</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3977,7 +3977,7 @@
         <v>43990</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4039,7 +4039,7 @@
         <v>43990</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4101,7 +4101,7 @@
         <v>44003</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4163,7 +4163,7 @@
         <v>44006</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4225,7 +4225,7 @@
         <v>44029</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4282,7 +4282,7 @@
         <v>44029</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         <v>44043</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>44043</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4463,7 +4463,7 @@
         <v>44049</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>44109</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         <v>44109</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
         <v>44109</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4691,7 +4691,7 @@
         <v>44110</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>44123</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4805,7 +4805,7 @@
         <v>44123</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4867,7 +4867,7 @@
         <v>44130</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         <v>44145</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4986,7 +4986,7 @@
         <v>44200</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5048,7 +5048,7 @@
         <v>44200</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5110,7 +5110,7 @@
         <v>44266</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5167,7 +5167,7 @@
         <v>44299</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5224,7 +5224,7 @@
         <v>44311</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5281,7 +5281,7 @@
         <v>44322</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5338,7 +5338,7 @@
         <v>44323</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5395,7 +5395,7 @@
         <v>44333</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>44335</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5514,7 +5514,7 @@
         <v>44377</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5576,7 +5576,7 @@
         <v>44382</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5638,7 +5638,7 @@
         <v>44382</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5700,7 +5700,7 @@
         <v>44383</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5762,7 +5762,7 @@
         <v>44405</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>44425</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         <v>44450</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5943,7 +5943,7 @@
         <v>44453</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6005,7 +6005,7 @@
         <v>44468</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         <v>44505</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6124,7 +6124,7 @@
         <v>44512</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6181,7 +6181,7 @@
         <v>44512</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6238,7 +6238,7 @@
         <v>44536</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6295,7 +6295,7 @@
         <v>44616</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6357,7 +6357,7 @@
         <v>44728</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6414,7 +6414,7 @@
         <v>44733</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6476,7 +6476,7 @@
         <v>44788</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6533,7 +6533,7 @@
         <v>44797</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6590,7 +6590,7 @@
         <v>44797</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6647,7 +6647,7 @@
         <v>44834</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6709,7 +6709,7 @@
         <v>44834</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>44840</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6828,7 +6828,7 @@
         <v>44841</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
         <v>44851</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>44868</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
         <v>44896</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         <v>44936</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7123,7 +7123,7 @@
         <v>44938</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7180,7 +7180,7 @@
         <v>44938</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7237,7 +7237,7 @@
         <v>44938</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>44938</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>44943</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7413,7 +7413,7 @@
         <v>44977</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7470,7 +7470,7 @@
         <v>44995</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>45003</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7584,7 +7584,7 @@
         <v>45007</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7646,7 +7646,7 @@
         <v>45021</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7703,7 +7703,7 @@
         <v>45068</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7760,7 +7760,7 @@
         <v>45068</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7817,7 +7817,7 @@
         <v>45075</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7874,7 +7874,7 @@
         <v>45077</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>45090</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>45104</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>45125</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>45125</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>45146</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
         <v>45163</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>45168</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>45174</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8402,7 +8402,7 @@
         <v>45174</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>

--- a/Översikt STORFORS.xlsx
+++ b/Översikt STORFORS.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y131"/>
+  <dimension ref="A1:Y132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>45061</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44029</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44029</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>44243</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>44319</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>44517</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1098,7 +1098,7 @@
         <v>44858</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         <v>43364</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1245,7 +1245,7 @@
         <v>43420</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1302,7 +1302,7 @@
         <v>43434</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>43437</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         <v>43444</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         <v>43447</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         <v>43476</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1602,7 +1602,7 @@
         <v>43476</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1664,7 +1664,7 @@
         <v>43479</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         <v>43482</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1783,7 +1783,7 @@
         <v>43494</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         <v>43503</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         <v>43503</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>43560</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         <v>43565</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         <v>43588</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2145,7 +2145,7 @@
         <v>43619</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2207,7 +2207,7 @@
         <v>43626</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2269,7 +2269,7 @@
         <v>43627</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
         <v>43627</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2393,7 +2393,7 @@
         <v>43642</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         <v>43650</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2517,7 +2517,7 @@
         <v>43685</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2579,7 +2579,7 @@
         <v>43735</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
         <v>43787</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2698,7 +2698,7 @@
         <v>43788</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         <v>43790</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2812,7 +2812,7 @@
         <v>43798</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2874,7 +2874,7 @@
         <v>43808</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2931,7 +2931,7 @@
         <v>43818</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         <v>43844</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         <v>43845</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         <v>43850</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>43850</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>43850</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3278,7 +3278,7 @@
         <v>43878</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3335,7 +3335,7 @@
         <v>43886</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3392,7 +3392,7 @@
         <v>43894</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3449,7 +3449,7 @@
         <v>43899</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         <v>43913</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3563,7 +3563,7 @@
         <v>43921</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3620,7 +3620,7 @@
         <v>43921</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3677,7 +3677,7 @@
         <v>43948</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3734,7 +3734,7 @@
         <v>43948</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3791,7 +3791,7 @@
         <v>43956</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         <v>43963</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3915,7 +3915,7 @@
         <v>43976</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3977,7 +3977,7 @@
         <v>43990</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4039,7 +4039,7 @@
         <v>43990</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4101,7 +4101,7 @@
         <v>44003</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4163,7 +4163,7 @@
         <v>44006</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4225,7 +4225,7 @@
         <v>44029</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4282,7 +4282,7 @@
         <v>44029</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         <v>44043</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>44043</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4463,7 +4463,7 @@
         <v>44049</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>44109</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         <v>44109</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
         <v>44109</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4691,7 +4691,7 @@
         <v>44110</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>44123</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4805,7 +4805,7 @@
         <v>44123</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4867,7 +4867,7 @@
         <v>44130</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         <v>44145</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4986,7 +4986,7 @@
         <v>44200</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5048,7 +5048,7 @@
         <v>44200</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5110,7 +5110,7 @@
         <v>44266</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5167,7 +5167,7 @@
         <v>44299</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5224,7 +5224,7 @@
         <v>44311</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5281,7 +5281,7 @@
         <v>44322</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5338,7 +5338,7 @@
         <v>44323</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5395,7 +5395,7 @@
         <v>44333</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>44335</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5514,7 +5514,7 @@
         <v>44377</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5576,7 +5576,7 @@
         <v>44382</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5638,7 +5638,7 @@
         <v>44382</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5700,7 +5700,7 @@
         <v>44383</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5762,7 +5762,7 @@
         <v>44405</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>44425</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         <v>44450</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5943,7 +5943,7 @@
         <v>44453</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6005,7 +6005,7 @@
         <v>44468</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         <v>44505</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6124,7 +6124,7 @@
         <v>44512</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6181,7 +6181,7 @@
         <v>44512</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6238,7 +6238,7 @@
         <v>44536</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6295,7 +6295,7 @@
         <v>44616</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6357,7 +6357,7 @@
         <v>44728</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6414,7 +6414,7 @@
         <v>44733</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6476,7 +6476,7 @@
         <v>44788</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6533,7 +6533,7 @@
         <v>44797</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6590,7 +6590,7 @@
         <v>44797</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6647,7 +6647,7 @@
         <v>44834</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6709,7 +6709,7 @@
         <v>44834</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>44840</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6828,7 +6828,7 @@
         <v>44841</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
         <v>44851</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>44868</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
         <v>44896</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         <v>44936</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7123,7 +7123,7 @@
         <v>44938</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7180,7 +7180,7 @@
         <v>44938</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7237,7 +7237,7 @@
         <v>44938</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>44938</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>44943</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7413,7 +7413,7 @@
         <v>44977</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7470,7 +7470,7 @@
         <v>44995</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>45003</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7584,7 +7584,7 @@
         <v>45007</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7646,7 +7646,7 @@
         <v>45021</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7703,7 +7703,7 @@
         <v>45068</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7760,7 +7760,7 @@
         <v>45068</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7817,7 +7817,7 @@
         <v>45075</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7874,7 +7874,7 @@
         <v>45077</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>45090</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>45104</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>45125</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>45125</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>45146</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
         <v>45163</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>45168</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>45174</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8392,7 +8392,7 @@
       </c>
       <c r="R130" s="2" t="inlineStr"/>
     </row>
-    <row r="131">
+    <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
           <t>A 41265-2023</t>
@@ -8402,7 +8402,7 @@
         <v>45174</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8453,6 +8453,63 @@
         <v>0</v>
       </c>
       <c r="R131" s="2" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>A 42350-2023</t>
+        </is>
+      </c>
+      <c r="B132" s="1" t="n">
+        <v>45180</v>
+      </c>
+      <c r="C132" s="1" t="n">
+        <v>45181</v>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>STORFORS</t>
+        </is>
+      </c>
+      <c r="G132" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="n">
+        <v>0</v>
+      </c>
+      <c r="L132" t="n">
+        <v>0</v>
+      </c>
+      <c r="M132" t="n">
+        <v>0</v>
+      </c>
+      <c r="N132" t="n">
+        <v>0</v>
+      </c>
+      <c r="O132" t="n">
+        <v>0</v>
+      </c>
+      <c r="P132" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q132" t="n">
+        <v>0</v>
+      </c>
+      <c r="R132" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt STORFORS.xlsx
+++ b/Översikt STORFORS.xlsx
@@ -572,7 +572,7 @@
         <v>45061</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44029</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44029</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>44243</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>44319</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>44517</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1098,7 +1098,7 @@
         <v>44858</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         <v>43364</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1245,7 +1245,7 @@
         <v>43420</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1302,7 +1302,7 @@
         <v>43434</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>43437</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         <v>43444</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         <v>43447</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         <v>43476</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1602,7 +1602,7 @@
         <v>43476</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1664,7 +1664,7 @@
         <v>43479</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         <v>43482</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1783,7 +1783,7 @@
         <v>43494</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         <v>43503</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         <v>43503</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>43560</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         <v>43565</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         <v>43588</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2145,7 +2145,7 @@
         <v>43619</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2207,7 +2207,7 @@
         <v>43626</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2269,7 +2269,7 @@
         <v>43627</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
         <v>43627</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2393,7 +2393,7 @@
         <v>43642</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         <v>43650</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2517,7 +2517,7 @@
         <v>43685</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2579,7 +2579,7 @@
         <v>43735</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
         <v>43787</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2698,7 +2698,7 @@
         <v>43788</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         <v>43790</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2812,7 +2812,7 @@
         <v>43798</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2874,7 +2874,7 @@
         <v>43808</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2931,7 +2931,7 @@
         <v>43818</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         <v>43844</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         <v>43845</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         <v>43850</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>43850</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>43850</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3278,7 +3278,7 @@
         <v>43878</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3335,7 +3335,7 @@
         <v>43886</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3392,7 +3392,7 @@
         <v>43894</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3449,7 +3449,7 @@
         <v>43899</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         <v>43913</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3563,7 +3563,7 @@
         <v>43921</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3620,7 +3620,7 @@
         <v>43921</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3677,7 +3677,7 @@
         <v>43948</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3734,7 +3734,7 @@
         <v>43948</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3791,7 +3791,7 @@
         <v>43956</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         <v>43963</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3915,7 +3915,7 @@
         <v>43976</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3977,7 +3977,7 @@
         <v>43990</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4039,7 +4039,7 @@
         <v>43990</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4101,7 +4101,7 @@
         <v>44003</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4163,7 +4163,7 @@
         <v>44006</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4225,7 +4225,7 @@
         <v>44029</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4282,7 +4282,7 @@
         <v>44029</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         <v>44043</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>44043</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4463,7 +4463,7 @@
         <v>44049</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>44109</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         <v>44109</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
         <v>44109</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4691,7 +4691,7 @@
         <v>44110</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>44123</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4805,7 +4805,7 @@
         <v>44123</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4867,7 +4867,7 @@
         <v>44130</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         <v>44145</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4986,7 +4986,7 @@
         <v>44200</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5048,7 +5048,7 @@
         <v>44200</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5110,7 +5110,7 @@
         <v>44266</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5167,7 +5167,7 @@
         <v>44299</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5224,7 +5224,7 @@
         <v>44311</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5281,7 +5281,7 @@
         <v>44322</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5338,7 +5338,7 @@
         <v>44323</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5395,7 +5395,7 @@
         <v>44333</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>44335</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5514,7 +5514,7 @@
         <v>44377</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5576,7 +5576,7 @@
         <v>44382</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5638,7 +5638,7 @@
         <v>44382</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5700,7 +5700,7 @@
         <v>44383</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5762,7 +5762,7 @@
         <v>44405</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>44425</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         <v>44450</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5943,7 +5943,7 @@
         <v>44453</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6005,7 +6005,7 @@
         <v>44468</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         <v>44505</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6124,7 +6124,7 @@
         <v>44512</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6181,7 +6181,7 @@
         <v>44512</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6238,7 +6238,7 @@
         <v>44536</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6295,7 +6295,7 @@
         <v>44616</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6357,7 +6357,7 @@
         <v>44728</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6414,7 +6414,7 @@
         <v>44733</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6476,7 +6476,7 @@
         <v>44788</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6533,7 +6533,7 @@
         <v>44797</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6590,7 +6590,7 @@
         <v>44797</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6647,7 +6647,7 @@
         <v>44834</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6709,7 +6709,7 @@
         <v>44834</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>44840</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6828,7 +6828,7 @@
         <v>44841</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
         <v>44851</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>44868</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
         <v>44896</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         <v>44936</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7123,7 +7123,7 @@
         <v>44938</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7180,7 +7180,7 @@
         <v>44938</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7237,7 +7237,7 @@
         <v>44938</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>44938</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>44943</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7413,7 +7413,7 @@
         <v>44977</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7470,7 +7470,7 @@
         <v>44995</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>45003</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7584,7 +7584,7 @@
         <v>45007</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7646,7 +7646,7 @@
         <v>45021</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7703,7 +7703,7 @@
         <v>45068</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7760,7 +7760,7 @@
         <v>45068</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7817,7 +7817,7 @@
         <v>45075</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7874,7 +7874,7 @@
         <v>45077</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>45090</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>45104</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>45125</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>45125</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>45146</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
         <v>45163</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>45168</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>45174</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8402,7 +8402,7 @@
         <v>45174</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8464,7 +8464,7 @@
         <v>45180</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>

--- a/Översikt STORFORS.xlsx
+++ b/Översikt STORFORS.xlsx
@@ -572,7 +572,7 @@
         <v>45061</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44029</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44029</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>44243</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>44319</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>44517</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1098,7 +1098,7 @@
         <v>44858</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         <v>43364</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1245,7 +1245,7 @@
         <v>43420</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1302,7 +1302,7 @@
         <v>43434</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>43437</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         <v>43444</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         <v>43447</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         <v>43476</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1602,7 +1602,7 @@
         <v>43476</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1664,7 +1664,7 @@
         <v>43479</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         <v>43482</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1783,7 +1783,7 @@
         <v>43494</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         <v>43503</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         <v>43503</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>43560</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         <v>43565</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         <v>43588</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2145,7 +2145,7 @@
         <v>43619</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2207,7 +2207,7 @@
         <v>43626</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2269,7 +2269,7 @@
         <v>43627</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
         <v>43627</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2393,7 +2393,7 @@
         <v>43642</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         <v>43650</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2517,7 +2517,7 @@
         <v>43685</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2579,7 +2579,7 @@
         <v>43735</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
         <v>43787</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2698,7 +2698,7 @@
         <v>43788</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         <v>43790</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2812,7 +2812,7 @@
         <v>43798</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2874,7 +2874,7 @@
         <v>43808</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2931,7 +2931,7 @@
         <v>43818</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         <v>43844</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         <v>43845</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         <v>43850</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>43850</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>43850</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3278,7 +3278,7 @@
         <v>43878</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3335,7 +3335,7 @@
         <v>43886</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3392,7 +3392,7 @@
         <v>43894</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3449,7 +3449,7 @@
         <v>43899</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         <v>43913</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3563,7 +3563,7 @@
         <v>43921</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3620,7 +3620,7 @@
         <v>43921</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3677,7 +3677,7 @@
         <v>43948</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3734,7 +3734,7 @@
         <v>43948</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3791,7 +3791,7 @@
         <v>43956</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         <v>43963</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3915,7 +3915,7 @@
         <v>43976</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3977,7 +3977,7 @@
         <v>43990</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4039,7 +4039,7 @@
         <v>43990</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4101,7 +4101,7 @@
         <v>44003</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4163,7 +4163,7 @@
         <v>44006</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4225,7 +4225,7 @@
         <v>44029</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4282,7 +4282,7 @@
         <v>44029</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         <v>44043</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>44043</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4463,7 +4463,7 @@
         <v>44049</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>44109</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         <v>44109</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
         <v>44109</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4691,7 +4691,7 @@
         <v>44110</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>44123</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4805,7 +4805,7 @@
         <v>44123</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4867,7 +4867,7 @@
         <v>44130</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         <v>44145</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4986,7 +4986,7 @@
         <v>44200</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5048,7 +5048,7 @@
         <v>44200</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5110,7 +5110,7 @@
         <v>44266</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5167,7 +5167,7 @@
         <v>44299</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5224,7 +5224,7 @@
         <v>44311</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5281,7 +5281,7 @@
         <v>44322</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5338,7 +5338,7 @@
         <v>44323</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5395,7 +5395,7 @@
         <v>44333</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>44335</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5514,7 +5514,7 @@
         <v>44377</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5576,7 +5576,7 @@
         <v>44382</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5638,7 +5638,7 @@
         <v>44382</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5700,7 +5700,7 @@
         <v>44383</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5762,7 +5762,7 @@
         <v>44405</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>44425</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         <v>44450</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5943,7 +5943,7 @@
         <v>44453</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6005,7 +6005,7 @@
         <v>44468</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         <v>44505</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6124,7 +6124,7 @@
         <v>44512</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6181,7 +6181,7 @@
         <v>44512</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6238,7 +6238,7 @@
         <v>44536</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6295,7 +6295,7 @@
         <v>44616</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6357,7 +6357,7 @@
         <v>44728</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6414,7 +6414,7 @@
         <v>44733</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6476,7 +6476,7 @@
         <v>44788</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6533,7 +6533,7 @@
         <v>44797</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6590,7 +6590,7 @@
         <v>44797</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6647,7 +6647,7 @@
         <v>44834</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6709,7 +6709,7 @@
         <v>44834</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>44840</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6828,7 +6828,7 @@
         <v>44841</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
         <v>44851</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>44868</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
         <v>44896</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         <v>44936</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7123,7 +7123,7 @@
         <v>44938</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7180,7 +7180,7 @@
         <v>44938</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7237,7 +7237,7 @@
         <v>44938</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>44938</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>44943</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7413,7 +7413,7 @@
         <v>44977</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7470,7 +7470,7 @@
         <v>44995</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>45003</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7584,7 +7584,7 @@
         <v>45007</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7646,7 +7646,7 @@
         <v>45021</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7703,7 +7703,7 @@
         <v>45068</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7760,7 +7760,7 @@
         <v>45068</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7817,7 +7817,7 @@
         <v>45075</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7874,7 +7874,7 @@
         <v>45077</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>45090</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>45104</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>45125</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>45125</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>45146</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
         <v>45163</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>45168</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>45174</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8402,7 +8402,7 @@
         <v>45174</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8464,7 +8464,7 @@
         <v>45180</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>

--- a/Översikt STORFORS.xlsx
+++ b/Översikt STORFORS.xlsx
@@ -572,7 +572,7 @@
         <v>45061</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,31 +629,31 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORFORS/artfynd/A 21083-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORFORS/artfynd/A 21083-2023.xlsx", "A 21083-2023")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORFORS/kartor/A 21083-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORFORS/kartor/A 21083-2023.png", "A 21083-2023")</f>
         <v/>
       </c>
       <c r="U2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORFORS/knärot/A 21083-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORFORS/knärot/A 21083-2023.png", "A 21083-2023")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORFORS/klagomål/A 21083-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORFORS/klagomål/A 21083-2023.docx", "A 21083-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORFORS/klagomålsmail/A 21083-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORFORS/klagomålsmail/A 21083-2023.docx", "A 21083-2023")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORFORS/tillsyn/A 21083-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORFORS/tillsyn/A 21083-2023.docx", "A 21083-2023")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORFORS/tillsynsmail/A 21083-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORFORS/tillsynsmail/A 21083-2023.docx", "A 21083-2023")</f>
         <v/>
       </c>
     </row>
@@ -667,7 +667,7 @@
         <v>44029</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -719,27 +719,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORFORS/artfynd/A 34418-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORFORS/artfynd/A 34418-2020.xlsx", "A 34418-2020")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORFORS/kartor/A 34418-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORFORS/kartor/A 34418-2020.png", "A 34418-2020")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORFORS/klagomål/A 34418-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORFORS/klagomål/A 34418-2020.docx", "A 34418-2020")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORFORS/klagomålsmail/A 34418-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORFORS/klagomålsmail/A 34418-2020.docx", "A 34418-2020")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORFORS/tillsyn/A 34418-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORFORS/tillsyn/A 34418-2020.docx", "A 34418-2020")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORFORS/tillsynsmail/A 34418-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORFORS/tillsynsmail/A 34418-2020.docx", "A 34418-2020")</f>
         <v/>
       </c>
     </row>
@@ -753,7 +753,7 @@
         <v>44029</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -804,27 +804,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORFORS/artfynd/A 34409-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORFORS/artfynd/A 34409-2020.xlsx", "A 34409-2020")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORFORS/kartor/A 34409-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORFORS/kartor/A 34409-2020.png", "A 34409-2020")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORFORS/klagomål/A 34409-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORFORS/klagomål/A 34409-2020.docx", "A 34409-2020")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORFORS/klagomålsmail/A 34409-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORFORS/klagomålsmail/A 34409-2020.docx", "A 34409-2020")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORFORS/tillsyn/A 34409-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORFORS/tillsyn/A 34409-2020.docx", "A 34409-2020")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORFORS/tillsynsmail/A 34409-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORFORS/tillsynsmail/A 34409-2020.docx", "A 34409-2020")</f>
         <v/>
       </c>
     </row>
@@ -838,7 +838,7 @@
         <v>44243</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -889,27 +889,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORFORS/artfynd/A 8048-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORFORS/artfynd/A 8048-2021.xlsx", "A 8048-2021")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORFORS/kartor/A 8048-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORFORS/kartor/A 8048-2021.png", "A 8048-2021")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORFORS/klagomål/A 8048-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORFORS/klagomål/A 8048-2021.docx", "A 8048-2021")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORFORS/klagomålsmail/A 8048-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORFORS/klagomålsmail/A 8048-2021.docx", "A 8048-2021")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORFORS/tillsyn/A 8048-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORFORS/tillsyn/A 8048-2021.docx", "A 8048-2021")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORFORS/tillsynsmail/A 8048-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORFORS/tillsynsmail/A 8048-2021.docx", "A 8048-2021")</f>
         <v/>
       </c>
     </row>
@@ -923,7 +923,7 @@
         <v>44319</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -974,27 +974,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORFORS/artfynd/A 21073-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORFORS/artfynd/A 21073-2021.xlsx", "A 21073-2021")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORFORS/kartor/A 21073-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORFORS/kartor/A 21073-2021.png", "A 21073-2021")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORFORS/klagomål/A 21073-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORFORS/klagomål/A 21073-2021.docx", "A 21073-2021")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORFORS/klagomålsmail/A 21073-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORFORS/klagomålsmail/A 21073-2021.docx", "A 21073-2021")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORFORS/tillsyn/A 21073-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORFORS/tillsyn/A 21073-2021.docx", "A 21073-2021")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORFORS/tillsynsmail/A 21073-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORFORS/tillsynsmail/A 21073-2021.docx", "A 21073-2021")</f>
         <v/>
       </c>
     </row>
@@ -1008,7 +1008,7 @@
         <v>44517</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1064,27 +1064,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORFORS/artfynd/A 65920-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORFORS/artfynd/A 65920-2021.xlsx", "A 65920-2021")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORFORS/kartor/A 65920-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORFORS/kartor/A 65920-2021.png", "A 65920-2021")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORFORS/klagomål/A 65920-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORFORS/klagomål/A 65920-2021.docx", "A 65920-2021")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORFORS/klagomålsmail/A 65920-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORFORS/klagomålsmail/A 65920-2021.docx", "A 65920-2021")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORFORS/tillsyn/A 65920-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORFORS/tillsyn/A 65920-2021.docx", "A 65920-2021")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORFORS/tillsynsmail/A 65920-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORFORS/tillsynsmail/A 65920-2021.docx", "A 65920-2021")</f>
         <v/>
       </c>
     </row>
@@ -1098,7 +1098,7 @@
         <v>44858</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1154,27 +1154,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORFORS/artfynd/A 48243-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORFORS/artfynd/A 48243-2022.xlsx", "A 48243-2022")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORFORS/kartor/A 48243-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORFORS/kartor/A 48243-2022.png", "A 48243-2022")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORFORS/klagomål/A 48243-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORFORS/klagomål/A 48243-2022.docx", "A 48243-2022")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORFORS/klagomålsmail/A 48243-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORFORS/klagomålsmail/A 48243-2022.docx", "A 48243-2022")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORFORS/tillsyn/A 48243-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORFORS/tillsyn/A 48243-2022.docx", "A 48243-2022")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORFORS/tillsynsmail/A 48243-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORFORS/tillsynsmail/A 48243-2022.docx", "A 48243-2022")</f>
         <v/>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
         <v>43364</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1245,7 +1245,7 @@
         <v>43420</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1302,7 +1302,7 @@
         <v>43434</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>43437</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         <v>43444</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         <v>43447</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         <v>43476</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1602,7 +1602,7 @@
         <v>43476</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1664,7 +1664,7 @@
         <v>43479</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         <v>43482</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1783,7 +1783,7 @@
         <v>43494</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         <v>43503</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         <v>43503</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>43560</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         <v>43565</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         <v>43588</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2145,7 +2145,7 @@
         <v>43619</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2207,7 +2207,7 @@
         <v>43626</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2269,7 +2269,7 @@
         <v>43627</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
         <v>43627</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2393,7 +2393,7 @@
         <v>43642</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         <v>43650</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2517,7 +2517,7 @@
         <v>43685</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2579,7 +2579,7 @@
         <v>43735</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
         <v>43787</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2698,7 +2698,7 @@
         <v>43788</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         <v>43790</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2812,7 +2812,7 @@
         <v>43798</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2874,7 +2874,7 @@
         <v>43808</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2931,7 +2931,7 @@
         <v>43818</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         <v>43844</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         <v>43845</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         <v>43850</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>43850</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>43850</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3278,7 +3278,7 @@
         <v>43878</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3335,7 +3335,7 @@
         <v>43886</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3392,7 +3392,7 @@
         <v>43894</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3449,7 +3449,7 @@
         <v>43899</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         <v>43913</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3563,7 +3563,7 @@
         <v>43921</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3620,7 +3620,7 @@
         <v>43921</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3677,7 +3677,7 @@
         <v>43948</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3734,7 +3734,7 @@
         <v>43948</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3791,7 +3791,7 @@
         <v>43956</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         <v>43963</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3915,7 +3915,7 @@
         <v>43976</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3977,7 +3977,7 @@
         <v>43990</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4039,7 +4039,7 @@
         <v>43990</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4101,7 +4101,7 @@
         <v>44003</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4163,7 +4163,7 @@
         <v>44006</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4225,7 +4225,7 @@
         <v>44029</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4282,7 +4282,7 @@
         <v>44029</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         <v>44043</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>44043</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4463,7 +4463,7 @@
         <v>44049</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>44109</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         <v>44109</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
         <v>44109</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4691,7 +4691,7 @@
         <v>44110</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>44123</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4805,7 +4805,7 @@
         <v>44123</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4867,7 +4867,7 @@
         <v>44130</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         <v>44145</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4986,7 +4986,7 @@
         <v>44200</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5048,7 +5048,7 @@
         <v>44200</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5110,7 +5110,7 @@
         <v>44266</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5167,7 +5167,7 @@
         <v>44299</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5224,7 +5224,7 @@
         <v>44311</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5281,7 +5281,7 @@
         <v>44322</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5338,7 +5338,7 @@
         <v>44323</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5395,7 +5395,7 @@
         <v>44333</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>44335</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5514,7 +5514,7 @@
         <v>44377</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5576,7 +5576,7 @@
         <v>44382</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5638,7 +5638,7 @@
         <v>44382</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5700,7 +5700,7 @@
         <v>44383</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5762,7 +5762,7 @@
         <v>44405</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>44425</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         <v>44450</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5943,7 +5943,7 @@
         <v>44453</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6005,7 +6005,7 @@
         <v>44468</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         <v>44505</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6124,7 +6124,7 @@
         <v>44512</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6181,7 +6181,7 @@
         <v>44512</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6238,7 +6238,7 @@
         <v>44536</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6295,7 +6295,7 @@
         <v>44616</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6357,7 +6357,7 @@
         <v>44728</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6414,7 +6414,7 @@
         <v>44733</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6476,7 +6476,7 @@
         <v>44788</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6533,7 +6533,7 @@
         <v>44797</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6590,7 +6590,7 @@
         <v>44797</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6647,7 +6647,7 @@
         <v>44834</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6709,7 +6709,7 @@
         <v>44834</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>44840</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6828,7 +6828,7 @@
         <v>44841</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
         <v>44851</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>44868</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
         <v>44896</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         <v>44936</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7123,7 +7123,7 @@
         <v>44938</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7180,7 +7180,7 @@
         <v>44938</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7237,7 +7237,7 @@
         <v>44938</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>44938</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>44943</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7413,7 +7413,7 @@
         <v>44977</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7470,7 +7470,7 @@
         <v>44995</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>45003</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7584,7 +7584,7 @@
         <v>45007</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7646,7 +7646,7 @@
         <v>45021</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7703,7 +7703,7 @@
         <v>45068</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7760,7 +7760,7 @@
         <v>45068</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7817,7 +7817,7 @@
         <v>45075</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7874,7 +7874,7 @@
         <v>45077</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>45090</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>45104</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>45125</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>45125</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>45146</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
         <v>45163</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>45168</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>45174</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8402,7 +8402,7 @@
         <v>45174</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8464,7 +8464,7 @@
         <v>45180</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>

--- a/Översikt STORFORS.xlsx
+++ b/Översikt STORFORS.xlsx
@@ -572,7 +572,7 @@
         <v>45061</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44029</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44029</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>44243</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>44319</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>44517</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1098,7 +1098,7 @@
         <v>44858</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         <v>43364</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1245,7 +1245,7 @@
         <v>43420</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1302,7 +1302,7 @@
         <v>43434</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>43437</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         <v>43444</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         <v>43447</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         <v>43476</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1602,7 +1602,7 @@
         <v>43476</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1664,7 +1664,7 @@
         <v>43479</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         <v>43482</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1783,7 +1783,7 @@
         <v>43494</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         <v>43503</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         <v>43503</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>43560</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         <v>43565</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         <v>43588</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2145,7 +2145,7 @@
         <v>43619</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2207,7 +2207,7 @@
         <v>43626</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2269,7 +2269,7 @@
         <v>43627</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
         <v>43627</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2393,7 +2393,7 @@
         <v>43642</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         <v>43650</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2517,7 +2517,7 @@
         <v>43685</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2579,7 +2579,7 @@
         <v>43735</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
         <v>43787</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2698,7 +2698,7 @@
         <v>43788</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         <v>43790</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2812,7 +2812,7 @@
         <v>43798</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2874,7 +2874,7 @@
         <v>43808</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2931,7 +2931,7 @@
         <v>43818</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         <v>43844</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         <v>43845</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         <v>43850</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>43850</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>43850</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3278,7 +3278,7 @@
         <v>43878</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3335,7 +3335,7 @@
         <v>43886</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3392,7 +3392,7 @@
         <v>43894</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3449,7 +3449,7 @@
         <v>43899</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         <v>43913</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3563,7 +3563,7 @@
         <v>43921</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3620,7 +3620,7 @@
         <v>43921</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3677,7 +3677,7 @@
         <v>43948</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3734,7 +3734,7 @@
         <v>43948</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3791,7 +3791,7 @@
         <v>43956</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         <v>43963</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3915,7 +3915,7 @@
         <v>43976</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3977,7 +3977,7 @@
         <v>43990</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4039,7 +4039,7 @@
         <v>43990</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4101,7 +4101,7 @@
         <v>44003</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4163,7 +4163,7 @@
         <v>44006</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4225,7 +4225,7 @@
         <v>44029</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4282,7 +4282,7 @@
         <v>44029</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         <v>44043</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>44043</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4463,7 +4463,7 @@
         <v>44049</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>44109</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         <v>44109</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
         <v>44109</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4691,7 +4691,7 @@
         <v>44110</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>44123</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4805,7 +4805,7 @@
         <v>44123</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4867,7 +4867,7 @@
         <v>44130</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         <v>44145</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4986,7 +4986,7 @@
         <v>44200</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5048,7 +5048,7 @@
         <v>44200</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5110,7 +5110,7 @@
         <v>44266</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5167,7 +5167,7 @@
         <v>44299</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5224,7 +5224,7 @@
         <v>44311</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5281,7 +5281,7 @@
         <v>44322</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5338,7 +5338,7 @@
         <v>44323</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5395,7 +5395,7 @@
         <v>44333</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>44335</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5514,7 +5514,7 @@
         <v>44377</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5576,7 +5576,7 @@
         <v>44382</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5638,7 +5638,7 @@
         <v>44382</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5700,7 +5700,7 @@
         <v>44383</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5762,7 +5762,7 @@
         <v>44405</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>44425</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         <v>44450</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5943,7 +5943,7 @@
         <v>44453</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6005,7 +6005,7 @@
         <v>44468</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         <v>44505</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6124,7 +6124,7 @@
         <v>44512</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6181,7 +6181,7 @@
         <v>44512</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6238,7 +6238,7 @@
         <v>44536</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6295,7 +6295,7 @@
         <v>44616</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6357,7 +6357,7 @@
         <v>44728</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6414,7 +6414,7 @@
         <v>44733</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6476,7 +6476,7 @@
         <v>44788</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6533,7 +6533,7 @@
         <v>44797</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6590,7 +6590,7 @@
         <v>44797</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6647,7 +6647,7 @@
         <v>44834</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6709,7 +6709,7 @@
         <v>44834</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>44840</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6828,7 +6828,7 @@
         <v>44841</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
         <v>44851</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>44868</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
         <v>44896</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         <v>44936</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7123,7 +7123,7 @@
         <v>44938</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7180,7 +7180,7 @@
         <v>44938</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7237,7 +7237,7 @@
         <v>44938</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>44938</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>44943</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7413,7 +7413,7 @@
         <v>44977</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7470,7 +7470,7 @@
         <v>44995</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>45003</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7584,7 +7584,7 @@
         <v>45007</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7646,7 +7646,7 @@
         <v>45021</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7703,7 +7703,7 @@
         <v>45068</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7760,7 +7760,7 @@
         <v>45068</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7817,7 +7817,7 @@
         <v>45075</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7874,7 +7874,7 @@
         <v>45077</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>45090</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>45104</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>45125</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>45125</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>45146</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
         <v>45163</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>45168</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>45174</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8402,7 +8402,7 @@
         <v>45174</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8464,7 +8464,7 @@
         <v>45180</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>

--- a/Översikt STORFORS.xlsx
+++ b/Översikt STORFORS.xlsx
@@ -572,7 +572,7 @@
         <v>45061</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44029</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44029</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>44243</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>44319</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>44517</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1098,7 +1098,7 @@
         <v>44858</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         <v>43364</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1245,7 +1245,7 @@
         <v>43420</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1302,7 +1302,7 @@
         <v>43434</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>43437</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         <v>43444</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         <v>43447</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         <v>43476</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1602,7 +1602,7 @@
         <v>43476</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1664,7 +1664,7 @@
         <v>43479</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         <v>43482</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1783,7 +1783,7 @@
         <v>43494</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         <v>43503</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         <v>43503</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>43560</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         <v>43565</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         <v>43588</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2145,7 +2145,7 @@
         <v>43619</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2207,7 +2207,7 @@
         <v>43626</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2269,7 +2269,7 @@
         <v>43627</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
         <v>43627</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2393,7 +2393,7 @@
         <v>43642</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         <v>43650</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2517,7 +2517,7 @@
         <v>43685</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2579,7 +2579,7 @@
         <v>43735</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
         <v>43787</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2698,7 +2698,7 @@
         <v>43788</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         <v>43790</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2812,7 +2812,7 @@
         <v>43798</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2874,7 +2874,7 @@
         <v>43808</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2931,7 +2931,7 @@
         <v>43818</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         <v>43844</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         <v>43845</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         <v>43850</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>43850</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>43850</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3278,7 +3278,7 @@
         <v>43878</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3335,7 +3335,7 @@
         <v>43886</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3392,7 +3392,7 @@
         <v>43894</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3449,7 +3449,7 @@
         <v>43899</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         <v>43913</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3563,7 +3563,7 @@
         <v>43921</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3620,7 +3620,7 @@
         <v>43921</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3677,7 +3677,7 @@
         <v>43948</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3734,7 +3734,7 @@
         <v>43948</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3791,7 +3791,7 @@
         <v>43956</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         <v>43963</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3915,7 +3915,7 @@
         <v>43976</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3977,7 +3977,7 @@
         <v>43990</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4039,7 +4039,7 @@
         <v>43990</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4101,7 +4101,7 @@
         <v>44003</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4163,7 +4163,7 @@
         <v>44006</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4225,7 +4225,7 @@
         <v>44029</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4282,7 +4282,7 @@
         <v>44029</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         <v>44043</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>44043</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4463,7 +4463,7 @@
         <v>44049</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>44109</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         <v>44109</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
         <v>44109</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4691,7 +4691,7 @@
         <v>44110</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>44123</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4805,7 +4805,7 @@
         <v>44123</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4867,7 +4867,7 @@
         <v>44130</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         <v>44145</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4986,7 +4986,7 @@
         <v>44200</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5048,7 +5048,7 @@
         <v>44200</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5110,7 +5110,7 @@
         <v>44266</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5167,7 +5167,7 @@
         <v>44299</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5224,7 +5224,7 @@
         <v>44311</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5281,7 +5281,7 @@
         <v>44322</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5338,7 +5338,7 @@
         <v>44323</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5395,7 +5395,7 @@
         <v>44333</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>44335</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5514,7 +5514,7 @@
         <v>44377</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5576,7 +5576,7 @@
         <v>44382</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5638,7 +5638,7 @@
         <v>44382</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5700,7 +5700,7 @@
         <v>44383</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5762,7 +5762,7 @@
         <v>44405</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>44425</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         <v>44450</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5943,7 +5943,7 @@
         <v>44453</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6005,7 +6005,7 @@
         <v>44468</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         <v>44505</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6124,7 +6124,7 @@
         <v>44512</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6181,7 +6181,7 @@
         <v>44512</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6238,7 +6238,7 @@
         <v>44536</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6295,7 +6295,7 @@
         <v>44616</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6357,7 +6357,7 @@
         <v>44728</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6414,7 +6414,7 @@
         <v>44733</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6476,7 +6476,7 @@
         <v>44788</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6533,7 +6533,7 @@
         <v>44797</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6590,7 +6590,7 @@
         <v>44797</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6647,7 +6647,7 @@
         <v>44834</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6709,7 +6709,7 @@
         <v>44834</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>44840</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6828,7 +6828,7 @@
         <v>44841</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
         <v>44851</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>44868</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
         <v>44896</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         <v>44936</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7123,7 +7123,7 @@
         <v>44938</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7180,7 +7180,7 @@
         <v>44938</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7237,7 +7237,7 @@
         <v>44938</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>44938</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>44943</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7413,7 +7413,7 @@
         <v>44977</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7470,7 +7470,7 @@
         <v>44995</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>45003</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7584,7 +7584,7 @@
         <v>45007</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7646,7 +7646,7 @@
         <v>45021</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7703,7 +7703,7 @@
         <v>45068</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7760,7 +7760,7 @@
         <v>45068</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7817,7 +7817,7 @@
         <v>45075</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7874,7 +7874,7 @@
         <v>45077</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>45090</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>45104</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>45125</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>45125</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>45146</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
         <v>45163</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>45168</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>45174</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8402,7 +8402,7 @@
         <v>45174</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8464,7 +8464,7 @@
         <v>45180</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>

--- a/Översikt STORFORS.xlsx
+++ b/Översikt STORFORS.xlsx
@@ -572,7 +572,7 @@
         <v>45061</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44029</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44029</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>44243</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>44319</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>44517</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1098,7 +1098,7 @@
         <v>44858</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         <v>43364</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1245,7 +1245,7 @@
         <v>43420</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1302,7 +1302,7 @@
         <v>43434</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>43437</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         <v>43444</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         <v>43447</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         <v>43476</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1602,7 +1602,7 @@
         <v>43476</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1664,7 +1664,7 @@
         <v>43479</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         <v>43482</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1783,7 +1783,7 @@
         <v>43494</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         <v>43503</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         <v>43503</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>43560</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         <v>43565</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         <v>43588</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2145,7 +2145,7 @@
         <v>43619</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2207,7 +2207,7 @@
         <v>43626</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2269,7 +2269,7 @@
         <v>43627</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
         <v>43627</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2393,7 +2393,7 @@
         <v>43642</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         <v>43650</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2517,7 +2517,7 @@
         <v>43685</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2579,7 +2579,7 @@
         <v>43735</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
         <v>43787</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2698,7 +2698,7 @@
         <v>43788</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         <v>43790</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2812,7 +2812,7 @@
         <v>43798</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2874,7 +2874,7 @@
         <v>43808</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2931,7 +2931,7 @@
         <v>43818</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         <v>43844</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         <v>43845</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         <v>43850</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>43850</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>43850</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3278,7 +3278,7 @@
         <v>43878</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3335,7 +3335,7 @@
         <v>43886</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3392,7 +3392,7 @@
         <v>43894</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3449,7 +3449,7 @@
         <v>43899</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         <v>43913</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3563,7 +3563,7 @@
         <v>43921</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3620,7 +3620,7 @@
         <v>43921</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3677,7 +3677,7 @@
         <v>43948</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3734,7 +3734,7 @@
         <v>43948</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3791,7 +3791,7 @@
         <v>43956</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         <v>43963</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3915,7 +3915,7 @@
         <v>43976</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3977,7 +3977,7 @@
         <v>43990</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4039,7 +4039,7 @@
         <v>43990</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4101,7 +4101,7 @@
         <v>44003</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4163,7 +4163,7 @@
         <v>44006</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4225,7 +4225,7 @@
         <v>44029</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4282,7 +4282,7 @@
         <v>44029</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         <v>44043</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>44043</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4463,7 +4463,7 @@
         <v>44049</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>44109</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         <v>44109</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
         <v>44109</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4691,7 +4691,7 @@
         <v>44110</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>44123</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4805,7 +4805,7 @@
         <v>44123</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4867,7 +4867,7 @@
         <v>44130</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         <v>44145</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4986,7 +4986,7 @@
         <v>44200</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5048,7 +5048,7 @@
         <v>44200</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5110,7 +5110,7 @@
         <v>44266</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5167,7 +5167,7 @@
         <v>44299</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5224,7 +5224,7 @@
         <v>44311</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5281,7 +5281,7 @@
         <v>44322</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5338,7 +5338,7 @@
         <v>44323</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5395,7 +5395,7 @@
         <v>44333</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>44335</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5514,7 +5514,7 @@
         <v>44377</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5576,7 +5576,7 @@
         <v>44382</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5638,7 +5638,7 @@
         <v>44382</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5700,7 +5700,7 @@
         <v>44383</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5762,7 +5762,7 @@
         <v>44405</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>44425</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         <v>44450</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5943,7 +5943,7 @@
         <v>44453</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6005,7 +6005,7 @@
         <v>44468</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         <v>44505</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6124,7 +6124,7 @@
         <v>44512</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6181,7 +6181,7 @@
         <v>44512</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6238,7 +6238,7 @@
         <v>44536</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6295,7 +6295,7 @@
         <v>44616</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6357,7 +6357,7 @@
         <v>44728</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6414,7 +6414,7 @@
         <v>44733</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6476,7 +6476,7 @@
         <v>44788</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6533,7 +6533,7 @@
         <v>44797</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6590,7 +6590,7 @@
         <v>44797</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6647,7 +6647,7 @@
         <v>44834</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6709,7 +6709,7 @@
         <v>44834</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>44840</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6828,7 +6828,7 @@
         <v>44841</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
         <v>44851</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>44868</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
         <v>44896</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         <v>44936</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7123,7 +7123,7 @@
         <v>44938</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7180,7 +7180,7 @@
         <v>44938</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7237,7 +7237,7 @@
         <v>44938</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>44938</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>44943</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7413,7 +7413,7 @@
         <v>44977</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7470,7 +7470,7 @@
         <v>44995</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>45003</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7584,7 +7584,7 @@
         <v>45007</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7646,7 +7646,7 @@
         <v>45021</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7703,7 +7703,7 @@
         <v>45068</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7760,7 +7760,7 @@
         <v>45068</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7817,7 +7817,7 @@
         <v>45075</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7874,7 +7874,7 @@
         <v>45077</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>45090</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>45104</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>45125</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>45125</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>45146</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
         <v>45163</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>45168</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>45174</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8402,7 +8402,7 @@
         <v>45174</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8464,7 +8464,7 @@
         <v>45180</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>

--- a/Översikt STORFORS.xlsx
+++ b/Översikt STORFORS.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y132"/>
+  <dimension ref="A1:Y133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>45061</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44029</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44029</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>44243</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>44319</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>44517</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1098,7 +1098,7 @@
         <v>44858</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         <v>43364</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1245,7 +1245,7 @@
         <v>43420</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1302,7 +1302,7 @@
         <v>43434</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>43437</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         <v>43444</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         <v>43447</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         <v>43476</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1602,7 +1602,7 @@
         <v>43476</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1664,7 +1664,7 @@
         <v>43479</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         <v>43482</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1783,7 +1783,7 @@
         <v>43494</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         <v>43503</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         <v>43503</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>43560</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         <v>43565</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         <v>43588</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2145,7 +2145,7 @@
         <v>43619</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2207,7 +2207,7 @@
         <v>43626</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2269,7 +2269,7 @@
         <v>43627</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
         <v>43627</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2393,7 +2393,7 @@
         <v>43642</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         <v>43650</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2517,7 +2517,7 @@
         <v>43685</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2579,7 +2579,7 @@
         <v>43735</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
         <v>43787</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2698,7 +2698,7 @@
         <v>43788</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         <v>43790</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2812,7 +2812,7 @@
         <v>43798</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2874,7 +2874,7 @@
         <v>43808</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2931,7 +2931,7 @@
         <v>43818</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         <v>43844</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         <v>43845</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         <v>43850</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>43850</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>43850</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3278,7 +3278,7 @@
         <v>43878</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3335,7 +3335,7 @@
         <v>43886</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3392,7 +3392,7 @@
         <v>43894</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3449,7 +3449,7 @@
         <v>43899</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         <v>43913</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3563,7 +3563,7 @@
         <v>43921</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3620,7 +3620,7 @@
         <v>43921</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3677,7 +3677,7 @@
         <v>43948</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3734,7 +3734,7 @@
         <v>43948</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3791,7 +3791,7 @@
         <v>43956</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         <v>43963</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3915,7 +3915,7 @@
         <v>43976</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3977,7 +3977,7 @@
         <v>43990</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4039,7 +4039,7 @@
         <v>43990</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4101,7 +4101,7 @@
         <v>44003</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4163,7 +4163,7 @@
         <v>44006</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4225,7 +4225,7 @@
         <v>44029</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4282,7 +4282,7 @@
         <v>44029</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         <v>44043</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>44043</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4463,7 +4463,7 @@
         <v>44049</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>44109</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         <v>44109</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
         <v>44109</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4691,7 +4691,7 @@
         <v>44110</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>44123</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4805,7 +4805,7 @@
         <v>44123</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4867,7 +4867,7 @@
         <v>44130</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         <v>44145</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4986,7 +4986,7 @@
         <v>44200</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5048,7 +5048,7 @@
         <v>44200</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5110,7 +5110,7 @@
         <v>44266</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5167,7 +5167,7 @@
         <v>44299</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5224,7 +5224,7 @@
         <v>44311</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5281,7 +5281,7 @@
         <v>44322</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5338,7 +5338,7 @@
         <v>44323</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5395,7 +5395,7 @@
         <v>44333</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>44335</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5514,7 +5514,7 @@
         <v>44377</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5576,7 +5576,7 @@
         <v>44382</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5638,7 +5638,7 @@
         <v>44382</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5700,7 +5700,7 @@
         <v>44383</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5762,7 +5762,7 @@
         <v>44405</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>44425</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         <v>44450</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5943,7 +5943,7 @@
         <v>44453</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6005,7 +6005,7 @@
         <v>44468</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         <v>44505</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6124,7 +6124,7 @@
         <v>44512</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6181,7 +6181,7 @@
         <v>44512</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6238,7 +6238,7 @@
         <v>44536</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6295,7 +6295,7 @@
         <v>44616</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6357,7 +6357,7 @@
         <v>44728</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6414,7 +6414,7 @@
         <v>44733</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6476,7 +6476,7 @@
         <v>44788</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6533,7 +6533,7 @@
         <v>44797</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6590,7 +6590,7 @@
         <v>44797</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6647,7 +6647,7 @@
         <v>44834</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6709,7 +6709,7 @@
         <v>44834</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>44840</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6828,7 +6828,7 @@
         <v>44841</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
         <v>44851</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>44868</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
         <v>44896</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         <v>44936</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7123,7 +7123,7 @@
         <v>44938</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7180,7 +7180,7 @@
         <v>44938</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7237,7 +7237,7 @@
         <v>44938</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>44938</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>44943</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7413,7 +7413,7 @@
         <v>44977</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7470,7 +7470,7 @@
         <v>44995</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>45003</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7584,7 +7584,7 @@
         <v>45007</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7646,7 +7646,7 @@
         <v>45021</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7703,7 +7703,7 @@
         <v>45068</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7760,7 +7760,7 @@
         <v>45068</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7817,7 +7817,7 @@
         <v>45075</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7874,7 +7874,7 @@
         <v>45077</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>45090</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>45104</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>45125</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>45125</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>45146</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
         <v>45163</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>45168</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>45174</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8402,7 +8402,7 @@
         <v>45174</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
       </c>
       <c r="R131" s="2" t="inlineStr"/>
     </row>
-    <row r="132">
+    <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
           <t>A 42350-2023</t>
@@ -8464,7 +8464,7 @@
         <v>45180</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8510,6 +8510,63 @@
         <v>0</v>
       </c>
       <c r="R132" s="2" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>A 45154-2023</t>
+        </is>
+      </c>
+      <c r="B133" s="1" t="n">
+        <v>45191</v>
+      </c>
+      <c r="C133" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>STORFORS</t>
+        </is>
+      </c>
+      <c r="G133" t="n">
+        <v>1</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="n">
+        <v>0</v>
+      </c>
+      <c r="L133" t="n">
+        <v>0</v>
+      </c>
+      <c r="M133" t="n">
+        <v>0</v>
+      </c>
+      <c r="N133" t="n">
+        <v>0</v>
+      </c>
+      <c r="O133" t="n">
+        <v>0</v>
+      </c>
+      <c r="P133" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q133" t="n">
+        <v>0</v>
+      </c>
+      <c r="R133" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt STORFORS.xlsx
+++ b/Översikt STORFORS.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y133"/>
+  <dimension ref="A1:Y134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>45061</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44029</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44029</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>44243</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>44319</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>44517</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1098,7 +1098,7 @@
         <v>44858</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         <v>43364</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1245,7 +1245,7 @@
         <v>43420</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1302,7 +1302,7 @@
         <v>43434</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>43437</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         <v>43444</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         <v>43447</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         <v>43476</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1602,7 +1602,7 @@
         <v>43476</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1664,7 +1664,7 @@
         <v>43479</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         <v>43482</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1783,7 +1783,7 @@
         <v>43494</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         <v>43503</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         <v>43503</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>43560</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         <v>43565</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         <v>43588</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2145,7 +2145,7 @@
         <v>43619</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2207,7 +2207,7 @@
         <v>43626</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2269,7 +2269,7 @@
         <v>43627</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
         <v>43627</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2393,7 +2393,7 @@
         <v>43642</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         <v>43650</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2517,7 +2517,7 @@
         <v>43685</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2579,7 +2579,7 @@
         <v>43735</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
         <v>43787</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2698,7 +2698,7 @@
         <v>43788</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         <v>43790</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2812,7 +2812,7 @@
         <v>43798</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2874,7 +2874,7 @@
         <v>43808</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2931,7 +2931,7 @@
         <v>43818</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         <v>43844</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         <v>43845</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         <v>43850</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>43850</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>43850</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3278,7 +3278,7 @@
         <v>43878</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3335,7 +3335,7 @@
         <v>43886</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3392,7 +3392,7 @@
         <v>43894</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3449,7 +3449,7 @@
         <v>43899</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         <v>43913</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3563,7 +3563,7 @@
         <v>43921</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3620,7 +3620,7 @@
         <v>43921</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3677,7 +3677,7 @@
         <v>43948</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3734,7 +3734,7 @@
         <v>43948</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3791,7 +3791,7 @@
         <v>43956</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         <v>43963</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3915,7 +3915,7 @@
         <v>43976</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3977,7 +3977,7 @@
         <v>43990</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4039,7 +4039,7 @@
         <v>43990</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4101,7 +4101,7 @@
         <v>44003</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4163,7 +4163,7 @@
         <v>44006</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4225,7 +4225,7 @@
         <v>44029</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4282,7 +4282,7 @@
         <v>44029</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         <v>44043</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>44043</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4463,7 +4463,7 @@
         <v>44049</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>44109</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         <v>44109</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
         <v>44109</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4691,7 +4691,7 @@
         <v>44110</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>44123</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4805,7 +4805,7 @@
         <v>44123</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4867,7 +4867,7 @@
         <v>44130</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         <v>44145</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4986,7 +4986,7 @@
         <v>44200</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5048,7 +5048,7 @@
         <v>44200</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5110,7 +5110,7 @@
         <v>44266</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5167,7 +5167,7 @@
         <v>44299</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5224,7 +5224,7 @@
         <v>44311</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5281,7 +5281,7 @@
         <v>44322</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5338,7 +5338,7 @@
         <v>44323</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5395,7 +5395,7 @@
         <v>44333</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>44335</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5514,7 +5514,7 @@
         <v>44377</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5576,7 +5576,7 @@
         <v>44382</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5638,7 +5638,7 @@
         <v>44382</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5700,7 +5700,7 @@
         <v>44383</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5762,7 +5762,7 @@
         <v>44405</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>44425</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         <v>44450</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5943,7 +5943,7 @@
         <v>44453</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6005,7 +6005,7 @@
         <v>44468</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         <v>44505</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6124,7 +6124,7 @@
         <v>44512</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6181,7 +6181,7 @@
         <v>44512</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6238,7 +6238,7 @@
         <v>44536</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6295,7 +6295,7 @@
         <v>44616</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6357,7 +6357,7 @@
         <v>44728</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6414,7 +6414,7 @@
         <v>44733</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6476,7 +6476,7 @@
         <v>44788</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6533,7 +6533,7 @@
         <v>44797</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6590,7 +6590,7 @@
         <v>44797</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6647,7 +6647,7 @@
         <v>44834</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6709,7 +6709,7 @@
         <v>44834</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>44840</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6828,7 +6828,7 @@
         <v>44841</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
         <v>44851</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>44868</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
         <v>44896</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         <v>44936</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7123,7 +7123,7 @@
         <v>44938</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7180,7 +7180,7 @@
         <v>44938</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7237,7 +7237,7 @@
         <v>44938</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>44938</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>44943</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7413,7 +7413,7 @@
         <v>44977</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7470,7 +7470,7 @@
         <v>44995</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>45003</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7584,7 +7584,7 @@
         <v>45007</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7646,7 +7646,7 @@
         <v>45021</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7703,7 +7703,7 @@
         <v>45068</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7760,7 +7760,7 @@
         <v>45068</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7817,7 +7817,7 @@
         <v>45075</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7874,7 +7874,7 @@
         <v>45077</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>45090</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>45104</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>45125</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>45125</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>45146</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
         <v>45163</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>45168</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>45174</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8402,7 +8402,7 @@
         <v>45174</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8464,7 +8464,7 @@
         <v>45180</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8511,7 +8511,7 @@
       </c>
       <c r="R132" s="2" t="inlineStr"/>
     </row>
-    <row r="133">
+    <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
           <t>A 45154-2023</t>
@@ -8521,7 +8521,7 @@
         <v>45191</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8567,6 +8567,63 @@
         <v>0</v>
       </c>
       <c r="R133" s="2" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>A 46389-2023</t>
+        </is>
+      </c>
+      <c r="B134" s="1" t="n">
+        <v>45197</v>
+      </c>
+      <c r="C134" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>STORFORS</t>
+        </is>
+      </c>
+      <c r="G134" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="n">
+        <v>0</v>
+      </c>
+      <c r="L134" t="n">
+        <v>0</v>
+      </c>
+      <c r="M134" t="n">
+        <v>0</v>
+      </c>
+      <c r="N134" t="n">
+        <v>0</v>
+      </c>
+      <c r="O134" t="n">
+        <v>0</v>
+      </c>
+      <c r="P134" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q134" t="n">
+        <v>0</v>
+      </c>
+      <c r="R134" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt STORFORS.xlsx
+++ b/Översikt STORFORS.xlsx
@@ -572,7 +572,7 @@
         <v>45061</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44029</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44029</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>44243</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>44319</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>44517</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1098,7 +1098,7 @@
         <v>44858</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         <v>43364</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1245,7 +1245,7 @@
         <v>43420</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1302,7 +1302,7 @@
         <v>43434</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>43437</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         <v>43444</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         <v>43447</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         <v>43476</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1602,7 +1602,7 @@
         <v>43476</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1664,7 +1664,7 @@
         <v>43479</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         <v>43482</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1783,7 +1783,7 @@
         <v>43494</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         <v>43503</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         <v>43503</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>43560</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         <v>43565</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         <v>43588</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2145,7 +2145,7 @@
         <v>43619</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2207,7 +2207,7 @@
         <v>43626</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2269,7 +2269,7 @@
         <v>43627</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
         <v>43627</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2393,7 +2393,7 @@
         <v>43642</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         <v>43650</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2517,7 +2517,7 @@
         <v>43685</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2579,7 +2579,7 @@
         <v>43735</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
         <v>43787</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2698,7 +2698,7 @@
         <v>43788</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         <v>43790</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2812,7 +2812,7 @@
         <v>43798</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2874,7 +2874,7 @@
         <v>43808</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2931,7 +2931,7 @@
         <v>43818</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         <v>43844</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         <v>43845</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         <v>43850</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>43850</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>43850</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3278,7 +3278,7 @@
         <v>43878</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3335,7 +3335,7 @@
         <v>43886</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3392,7 +3392,7 @@
         <v>43894</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3449,7 +3449,7 @@
         <v>43899</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         <v>43913</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3563,7 +3563,7 @@
         <v>43921</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3620,7 +3620,7 @@
         <v>43921</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3677,7 +3677,7 @@
         <v>43948</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3734,7 +3734,7 @@
         <v>43948</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3791,7 +3791,7 @@
         <v>43956</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         <v>43963</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3915,7 +3915,7 @@
         <v>43976</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3977,7 +3977,7 @@
         <v>43990</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4039,7 +4039,7 @@
         <v>43990</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4101,7 +4101,7 @@
         <v>44003</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4163,7 +4163,7 @@
         <v>44006</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4225,7 +4225,7 @@
         <v>44029</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4282,7 +4282,7 @@
         <v>44029</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         <v>44043</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>44043</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4463,7 +4463,7 @@
         <v>44049</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>44109</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         <v>44109</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
         <v>44109</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4691,7 +4691,7 @@
         <v>44110</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>44123</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4805,7 +4805,7 @@
         <v>44123</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4867,7 +4867,7 @@
         <v>44130</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         <v>44145</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4986,7 +4986,7 @@
         <v>44200</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5048,7 +5048,7 @@
         <v>44200</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5110,7 +5110,7 @@
         <v>44266</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5167,7 +5167,7 @@
         <v>44299</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5224,7 +5224,7 @@
         <v>44311</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5281,7 +5281,7 @@
         <v>44322</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5338,7 +5338,7 @@
         <v>44323</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5395,7 +5395,7 @@
         <v>44333</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>44335</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5514,7 +5514,7 @@
         <v>44377</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5576,7 +5576,7 @@
         <v>44382</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5638,7 +5638,7 @@
         <v>44382</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5700,7 +5700,7 @@
         <v>44383</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5762,7 +5762,7 @@
         <v>44405</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>44425</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         <v>44450</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5943,7 +5943,7 @@
         <v>44453</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6005,7 +6005,7 @@
         <v>44468</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         <v>44505</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6124,7 +6124,7 @@
         <v>44512</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6181,7 +6181,7 @@
         <v>44512</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6238,7 +6238,7 @@
         <v>44536</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6295,7 +6295,7 @@
         <v>44616</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6357,7 +6357,7 @@
         <v>44728</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6414,7 +6414,7 @@
         <v>44733</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6476,7 +6476,7 @@
         <v>44788</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6533,7 +6533,7 @@
         <v>44797</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6590,7 +6590,7 @@
         <v>44797</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6647,7 +6647,7 @@
         <v>44834</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6709,7 +6709,7 @@
         <v>44834</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>44840</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6828,7 +6828,7 @@
         <v>44841</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
         <v>44851</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>44868</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
         <v>44896</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         <v>44936</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7123,7 +7123,7 @@
         <v>44938</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7180,7 +7180,7 @@
         <v>44938</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7237,7 +7237,7 @@
         <v>44938</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>44938</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>44943</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7413,7 +7413,7 @@
         <v>44977</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7470,7 +7470,7 @@
         <v>44995</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>45003</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7584,7 +7584,7 @@
         <v>45007</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7646,7 +7646,7 @@
         <v>45021</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7703,7 +7703,7 @@
         <v>45068</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7760,7 +7760,7 @@
         <v>45068</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7817,7 +7817,7 @@
         <v>45075</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7874,7 +7874,7 @@
         <v>45077</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>45090</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>45104</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>45125</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>45125</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>45146</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
         <v>45163</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>45168</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>45174</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8402,7 +8402,7 @@
         <v>45174</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8464,7 +8464,7 @@
         <v>45180</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8521,7 +8521,7 @@
         <v>45191</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8578,7 +8578,7 @@
         <v>45197</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>

--- a/Översikt STORFORS.xlsx
+++ b/Översikt STORFORS.xlsx
@@ -572,7 +572,7 @@
         <v>45061</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44029</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44029</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>44243</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>44319</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>44517</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1098,7 +1098,7 @@
         <v>44858</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         <v>43364</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1245,7 +1245,7 @@
         <v>43420</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1302,7 +1302,7 @@
         <v>43434</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>43437</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         <v>43444</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         <v>43447</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         <v>43476</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1602,7 +1602,7 @@
         <v>43476</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1664,7 +1664,7 @@
         <v>43479</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         <v>43482</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1783,7 +1783,7 @@
         <v>43494</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         <v>43503</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         <v>43503</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>43560</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         <v>43565</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         <v>43588</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2145,7 +2145,7 @@
         <v>43619</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2207,7 +2207,7 @@
         <v>43626</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2269,7 +2269,7 @@
         <v>43627</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
         <v>43627</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2393,7 +2393,7 @@
         <v>43642</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         <v>43650</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2517,7 +2517,7 @@
         <v>43685</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2579,7 +2579,7 @@
         <v>43735</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
         <v>43787</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2698,7 +2698,7 @@
         <v>43788</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         <v>43790</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2812,7 +2812,7 @@
         <v>43798</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2874,7 +2874,7 @@
         <v>43808</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2931,7 +2931,7 @@
         <v>43818</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         <v>43844</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         <v>43845</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         <v>43850</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>43850</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>43850</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3278,7 +3278,7 @@
         <v>43878</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3335,7 +3335,7 @@
         <v>43886</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3392,7 +3392,7 @@
         <v>43894</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3449,7 +3449,7 @@
         <v>43899</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         <v>43913</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3563,7 +3563,7 @@
         <v>43921</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3620,7 +3620,7 @@
         <v>43921</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3677,7 +3677,7 @@
         <v>43948</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3734,7 +3734,7 @@
         <v>43948</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3791,7 +3791,7 @@
         <v>43956</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         <v>43963</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3915,7 +3915,7 @@
         <v>43976</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3977,7 +3977,7 @@
         <v>43990</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4039,7 +4039,7 @@
         <v>43990</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4101,7 +4101,7 @@
         <v>44003</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4163,7 +4163,7 @@
         <v>44006</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4225,7 +4225,7 @@
         <v>44029</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4282,7 +4282,7 @@
         <v>44029</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         <v>44043</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>44043</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4463,7 +4463,7 @@
         <v>44049</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>44109</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         <v>44109</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
         <v>44109</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4691,7 +4691,7 @@
         <v>44110</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>44123</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4805,7 +4805,7 @@
         <v>44123</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4867,7 +4867,7 @@
         <v>44130</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         <v>44145</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4986,7 +4986,7 @@
         <v>44200</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5048,7 +5048,7 @@
         <v>44200</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5110,7 +5110,7 @@
         <v>44266</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5167,7 +5167,7 @@
         <v>44299</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5224,7 +5224,7 @@
         <v>44311</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5281,7 +5281,7 @@
         <v>44322</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5338,7 +5338,7 @@
         <v>44323</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5395,7 +5395,7 @@
         <v>44333</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>44335</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5514,7 +5514,7 @@
         <v>44377</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5576,7 +5576,7 @@
         <v>44382</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5638,7 +5638,7 @@
         <v>44382</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5700,7 +5700,7 @@
         <v>44383</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5762,7 +5762,7 @@
         <v>44405</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>44425</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         <v>44450</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5943,7 +5943,7 @@
         <v>44453</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6005,7 +6005,7 @@
         <v>44468</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         <v>44505</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6124,7 +6124,7 @@
         <v>44512</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6181,7 +6181,7 @@
         <v>44512</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6238,7 +6238,7 @@
         <v>44536</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6295,7 +6295,7 @@
         <v>44616</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6357,7 +6357,7 @@
         <v>44728</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6414,7 +6414,7 @@
         <v>44733</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6476,7 +6476,7 @@
         <v>44788</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6533,7 +6533,7 @@
         <v>44797</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6590,7 +6590,7 @@
         <v>44797</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6647,7 +6647,7 @@
         <v>44834</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6709,7 +6709,7 @@
         <v>44834</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>44840</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6828,7 +6828,7 @@
         <v>44841</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
         <v>44851</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>44868</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
         <v>44896</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         <v>44936</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7123,7 +7123,7 @@
         <v>44938</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7180,7 +7180,7 @@
         <v>44938</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7237,7 +7237,7 @@
         <v>44938</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>44938</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>44943</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7413,7 +7413,7 @@
         <v>44977</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7470,7 +7470,7 @@
         <v>44995</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>45003</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7584,7 +7584,7 @@
         <v>45007</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7646,7 +7646,7 @@
         <v>45021</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7703,7 +7703,7 @@
         <v>45068</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7760,7 +7760,7 @@
         <v>45068</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7817,7 +7817,7 @@
         <v>45075</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7874,7 +7874,7 @@
         <v>45077</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>45090</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>45104</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>45125</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>45125</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>45146</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
         <v>45163</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>45168</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>45174</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8402,7 +8402,7 @@
         <v>45174</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8464,7 +8464,7 @@
         <v>45180</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8521,7 +8521,7 @@
         <v>45191</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8578,7 +8578,7 @@
         <v>45197</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>

--- a/Översikt STORFORS.xlsx
+++ b/Översikt STORFORS.xlsx
@@ -572,7 +572,7 @@
         <v>45061</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44029</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44029</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>44243</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>44319</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>44517</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1098,7 +1098,7 @@
         <v>44858</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         <v>43364</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1245,7 +1245,7 @@
         <v>43420</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1302,7 +1302,7 @@
         <v>43434</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>43437</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         <v>43444</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         <v>43447</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         <v>43476</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1602,7 +1602,7 @@
         <v>43476</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1664,7 +1664,7 @@
         <v>43479</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         <v>43482</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1783,7 +1783,7 @@
         <v>43494</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         <v>43503</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         <v>43503</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>43560</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         <v>43565</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         <v>43588</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2145,7 +2145,7 @@
         <v>43619</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2207,7 +2207,7 @@
         <v>43626</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2269,7 +2269,7 @@
         <v>43627</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
         <v>43627</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2393,7 +2393,7 @@
         <v>43642</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         <v>43650</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2517,7 +2517,7 @@
         <v>43685</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2579,7 +2579,7 @@
         <v>43735</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
         <v>43787</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2698,7 +2698,7 @@
         <v>43788</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         <v>43790</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2812,7 +2812,7 @@
         <v>43798</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2874,7 +2874,7 @@
         <v>43808</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2931,7 +2931,7 @@
         <v>43818</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         <v>43844</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         <v>43845</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         <v>43850</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>43850</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>43850</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3278,7 +3278,7 @@
         <v>43878</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3335,7 +3335,7 @@
         <v>43886</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3392,7 +3392,7 @@
         <v>43894</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3449,7 +3449,7 @@
         <v>43899</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         <v>43913</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3563,7 +3563,7 @@
         <v>43921</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3620,7 +3620,7 @@
         <v>43921</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3677,7 +3677,7 @@
         <v>43948</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3734,7 +3734,7 @@
         <v>43948</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3791,7 +3791,7 @@
         <v>43956</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         <v>43963</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3915,7 +3915,7 @@
         <v>43976</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3977,7 +3977,7 @@
         <v>43990</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4039,7 +4039,7 @@
         <v>43990</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4101,7 +4101,7 @@
         <v>44003</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4163,7 +4163,7 @@
         <v>44006</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4225,7 +4225,7 @@
         <v>44029</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4282,7 +4282,7 @@
         <v>44029</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         <v>44043</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>44043</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4463,7 +4463,7 @@
         <v>44049</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>44109</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         <v>44109</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
         <v>44109</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4691,7 +4691,7 @@
         <v>44110</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>44123</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4805,7 +4805,7 @@
         <v>44123</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4867,7 +4867,7 @@
         <v>44130</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         <v>44145</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4986,7 +4986,7 @@
         <v>44200</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5048,7 +5048,7 @@
         <v>44200</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5110,7 +5110,7 @@
         <v>44266</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5167,7 +5167,7 @@
         <v>44299</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5224,7 +5224,7 @@
         <v>44311</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5281,7 +5281,7 @@
         <v>44322</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5338,7 +5338,7 @@
         <v>44323</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5395,7 +5395,7 @@
         <v>44333</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>44335</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5514,7 +5514,7 @@
         <v>44377</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5576,7 +5576,7 @@
         <v>44382</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5638,7 +5638,7 @@
         <v>44382</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5700,7 +5700,7 @@
         <v>44383</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5762,7 +5762,7 @@
         <v>44405</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>44425</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         <v>44450</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5943,7 +5943,7 @@
         <v>44453</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6005,7 +6005,7 @@
         <v>44468</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         <v>44505</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6124,7 +6124,7 @@
         <v>44512</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6181,7 +6181,7 @@
         <v>44512</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6238,7 +6238,7 @@
         <v>44536</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6295,7 +6295,7 @@
         <v>44616</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6357,7 +6357,7 @@
         <v>44728</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6414,7 +6414,7 @@
         <v>44733</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6476,7 +6476,7 @@
         <v>44788</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6533,7 +6533,7 @@
         <v>44797</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6590,7 +6590,7 @@
         <v>44797</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6647,7 +6647,7 @@
         <v>44834</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6709,7 +6709,7 @@
         <v>44834</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>44840</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6828,7 +6828,7 @@
         <v>44841</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
         <v>44851</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>44868</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
         <v>44896</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         <v>44936</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7123,7 +7123,7 @@
         <v>44938</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7180,7 +7180,7 @@
         <v>44938</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7237,7 +7237,7 @@
         <v>44938</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>44938</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>44943</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7413,7 +7413,7 @@
         <v>44977</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7470,7 +7470,7 @@
         <v>44995</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>45003</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7584,7 +7584,7 @@
         <v>45007</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7646,7 +7646,7 @@
         <v>45021</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7703,7 +7703,7 @@
         <v>45068</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7760,7 +7760,7 @@
         <v>45068</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7817,7 +7817,7 @@
         <v>45075</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7874,7 +7874,7 @@
         <v>45077</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>45090</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>45104</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>45125</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>45125</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>45146</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
         <v>45163</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>45168</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>45174</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8402,7 +8402,7 @@
         <v>45174</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8464,7 +8464,7 @@
         <v>45180</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8521,7 +8521,7 @@
         <v>45191</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8578,7 +8578,7 @@
         <v>45197</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>

--- a/Översikt STORFORS.xlsx
+++ b/Översikt STORFORS.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y134"/>
+  <dimension ref="A1:Y135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>45061</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44029</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44029</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>44243</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>44319</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>44517</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1098,7 +1098,7 @@
         <v>44858</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         <v>43364</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1245,7 +1245,7 @@
         <v>43420</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1302,7 +1302,7 @@
         <v>43434</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>43437</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         <v>43444</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         <v>43447</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         <v>43476</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1602,7 +1602,7 @@
         <v>43476</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1664,7 +1664,7 @@
         <v>43479</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         <v>43482</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1783,7 +1783,7 @@
         <v>43494</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         <v>43503</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         <v>43503</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>43560</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         <v>43565</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         <v>43588</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2145,7 +2145,7 @@
         <v>43619</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2207,7 +2207,7 @@
         <v>43626</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2269,7 +2269,7 @@
         <v>43627</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
         <v>43627</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2393,7 +2393,7 @@
         <v>43642</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         <v>43650</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2517,7 +2517,7 @@
         <v>43685</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2579,7 +2579,7 @@
         <v>43735</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
         <v>43787</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2698,7 +2698,7 @@
         <v>43788</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         <v>43790</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2812,7 +2812,7 @@
         <v>43798</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2874,7 +2874,7 @@
         <v>43808</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2931,7 +2931,7 @@
         <v>43818</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         <v>43844</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         <v>43845</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         <v>43850</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>43850</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>43850</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3278,7 +3278,7 @@
         <v>43878</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3335,7 +3335,7 @@
         <v>43886</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3392,7 +3392,7 @@
         <v>43894</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3449,7 +3449,7 @@
         <v>43899</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         <v>43913</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3563,7 +3563,7 @@
         <v>43921</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3620,7 +3620,7 @@
         <v>43921</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3677,7 +3677,7 @@
         <v>43948</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3734,7 +3734,7 @@
         <v>43948</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3791,7 +3791,7 @@
         <v>43956</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         <v>43963</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3915,7 +3915,7 @@
         <v>43976</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3977,7 +3977,7 @@
         <v>43990</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4039,7 +4039,7 @@
         <v>43990</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4101,7 +4101,7 @@
         <v>44003</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4163,7 +4163,7 @@
         <v>44006</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4225,7 +4225,7 @@
         <v>44029</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4282,7 +4282,7 @@
         <v>44029</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         <v>44043</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>44043</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4463,7 +4463,7 @@
         <v>44049</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>44109</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         <v>44109</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
         <v>44109</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4691,7 +4691,7 @@
         <v>44110</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>44123</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4805,7 +4805,7 @@
         <v>44123</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4867,7 +4867,7 @@
         <v>44130</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         <v>44145</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4986,7 +4986,7 @@
         <v>44200</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5048,7 +5048,7 @@
         <v>44200</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5110,7 +5110,7 @@
         <v>44266</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5167,7 +5167,7 @@
         <v>44299</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5224,7 +5224,7 @@
         <v>44311</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5281,7 +5281,7 @@
         <v>44322</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5338,7 +5338,7 @@
         <v>44323</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5395,7 +5395,7 @@
         <v>44333</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>44335</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5514,7 +5514,7 @@
         <v>44377</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5576,7 +5576,7 @@
         <v>44382</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5638,7 +5638,7 @@
         <v>44382</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5700,7 +5700,7 @@
         <v>44383</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5762,7 +5762,7 @@
         <v>44405</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>44425</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         <v>44450</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5943,7 +5943,7 @@
         <v>44453</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6005,7 +6005,7 @@
         <v>44468</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         <v>44505</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6124,7 +6124,7 @@
         <v>44512</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6181,7 +6181,7 @@
         <v>44512</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6238,7 +6238,7 @@
         <v>44536</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6295,7 +6295,7 @@
         <v>44616</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6357,7 +6357,7 @@
         <v>44728</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6414,7 +6414,7 @@
         <v>44733</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6476,7 +6476,7 @@
         <v>44788</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6533,7 +6533,7 @@
         <v>44797</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6590,7 +6590,7 @@
         <v>44797</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6647,7 +6647,7 @@
         <v>44834</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6709,7 +6709,7 @@
         <v>44834</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>44840</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6828,7 +6828,7 @@
         <v>44841</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
         <v>44851</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>44868</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
         <v>44896</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         <v>44936</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7123,7 +7123,7 @@
         <v>44938</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7180,7 +7180,7 @@
         <v>44938</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7237,7 +7237,7 @@
         <v>44938</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>44938</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>44943</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7413,7 +7413,7 @@
         <v>44977</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7470,7 +7470,7 @@
         <v>44995</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>45003</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7584,7 +7584,7 @@
         <v>45007</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7646,7 +7646,7 @@
         <v>45021</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7703,7 +7703,7 @@
         <v>45068</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7760,7 +7760,7 @@
         <v>45068</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7817,7 +7817,7 @@
         <v>45075</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7874,7 +7874,7 @@
         <v>45077</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>45090</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>45104</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>45125</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>45125</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>45146</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
         <v>45163</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>45168</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>45174</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8402,7 +8402,7 @@
         <v>45174</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8464,7 +8464,7 @@
         <v>45180</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8521,7 +8521,7 @@
         <v>45191</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
       </c>
       <c r="R133" s="2" t="inlineStr"/>
     </row>
-    <row r="134">
+    <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
           <t>A 46389-2023</t>
@@ -8578,7 +8578,7 @@
         <v>45197</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8624,6 +8624,68 @@
         <v>0</v>
       </c>
       <c r="R134" s="2" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>A 47894-2023</t>
+        </is>
+      </c>
+      <c r="B135" s="1" t="n">
+        <v>45204</v>
+      </c>
+      <c r="C135" s="1" t="n">
+        <v>45206</v>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>STORFORS</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G135" t="n">
+        <v>4</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="n">
+        <v>0</v>
+      </c>
+      <c r="L135" t="n">
+        <v>0</v>
+      </c>
+      <c r="M135" t="n">
+        <v>0</v>
+      </c>
+      <c r="N135" t="n">
+        <v>0</v>
+      </c>
+      <c r="O135" t="n">
+        <v>0</v>
+      </c>
+      <c r="P135" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q135" t="n">
+        <v>0</v>
+      </c>
+      <c r="R135" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
